--- a/WAS계획서 및 일지.xlsx
+++ b/WAS계획서 및 일지.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="731">
   <si>
     <t>2019년 8월</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -2870,7 +2870,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>10월 22일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>안드로이드, 매출현황, 메인화면(공지사항, 메인틀), 전자결재(기안서작성)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드, 매출현황, 메인화면(공지사항, 메인틀), 전자결재(기안서작성), 급여등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 24일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간발표 (발표자 김시성)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4369,6 +4385,231 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4399,12 +4640,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4417,18 +4652,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4450,69 +4673,12 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4524,156 +4690,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="33" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6238,22 +6254,22 @@
     </row>
     <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="184"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="158"/>
       <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -6264,178 +6280,178 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186" t="s">
+      <c r="C4" s="160"/>
+      <c r="D4" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186" t="s">
+      <c r="E4" s="160"/>
+      <c r="F4" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186" t="s">
+      <c r="G4" s="160"/>
+      <c r="H4" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186" t="s">
+      <c r="I4" s="160"/>
+      <c r="J4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186" t="s">
+      <c r="K4" s="160"/>
+      <c r="L4" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186" t="s">
+      <c r="M4" s="160"/>
+      <c r="N4" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="215"/>
+      <c r="O4" s="161"/>
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="199">
+      <c r="B5" s="148">
         <v>18</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170">
+      <c r="C5" s="149"/>
+      <c r="D5" s="149">
         <v>19</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170">
+      <c r="E5" s="149"/>
+      <c r="F5" s="149">
         <v>20</v>
       </c>
-      <c r="G5" s="170"/>
-      <c r="H5" s="168">
+      <c r="G5" s="149"/>
+      <c r="H5" s="164">
         <v>21</v>
       </c>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168">
+      <c r="I5" s="164"/>
+      <c r="J5" s="164">
         <v>22</v>
       </c>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168">
+      <c r="K5" s="164"/>
+      <c r="L5" s="164">
         <v>23</v>
       </c>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168">
+      <c r="M5" s="164"/>
+      <c r="N5" s="164">
         <v>24</v>
       </c>
-      <c r="O5" s="169"/>
+      <c r="O5" s="168"/>
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="192" t="s">
+      <c r="B6" s="165"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="193"/>
-      <c r="L6" s="157" t="s">
+      <c r="K6" s="137"/>
+      <c r="L6" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="158"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="163"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="143"/>
       <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="195"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="164"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="145"/>
       <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="164"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="145"/>
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="164"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="145"/>
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="164"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="145"/>
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="190"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="165"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="173"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="147"/>
       <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6448,12 +6464,12 @@
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="222" t="s">
+      <c r="J12" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="223"/>
-      <c r="L12" s="223"/>
-      <c r="M12" s="224"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="176"/>
       <c r="N12" s="5"/>
       <c r="O12" s="18"/>
       <c r="P12" s="102"/>
@@ -6467,154 +6483,154 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="225">
+      <c r="B13" s="177">
         <v>25</v>
       </c>
-      <c r="C13" s="226"/>
-      <c r="D13" s="226">
+      <c r="C13" s="178"/>
+      <c r="D13" s="178">
         <v>26</v>
       </c>
-      <c r="E13" s="226"/>
-      <c r="F13" s="226">
+      <c r="E13" s="178"/>
+      <c r="F13" s="178">
         <v>27</v>
       </c>
-      <c r="G13" s="226"/>
-      <c r="H13" s="218">
+      <c r="G13" s="178"/>
+      <c r="H13" s="179">
         <v>28</v>
       </c>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218">
+      <c r="I13" s="179"/>
+      <c r="J13" s="179">
         <v>29</v>
       </c>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218">
+      <c r="K13" s="179"/>
+      <c r="L13" s="179">
         <v>30</v>
       </c>
-      <c r="M13" s="218"/>
-      <c r="N13" s="218">
+      <c r="M13" s="179"/>
+      <c r="N13" s="179">
         <v>31</v>
       </c>
-      <c r="O13" s="219"/>
+      <c r="O13" s="189"/>
       <c r="P13" s="118"/>
-      <c r="Q13" s="137" t="s">
+      <c r="Q13" s="212" t="s">
         <v>632</v>
       </c>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="139"/>
+      <c r="R13" s="213"/>
+      <c r="S13" s="213"/>
+      <c r="T13" s="213"/>
+      <c r="U13" s="213"/>
+      <c r="V13" s="213"/>
+      <c r="W13" s="214"/>
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="187"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="216" t="s">
+      <c r="B14" s="165"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="188"/>
-      <c r="F14" s="216" t="s">
+      <c r="E14" s="131"/>
+      <c r="F14" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="172"/>
-      <c r="H14" s="220" t="s">
+      <c r="G14" s="183"/>
+      <c r="H14" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="220"/>
-      <c r="J14" s="220" t="s">
+      <c r="I14" s="181"/>
+      <c r="J14" s="181" t="s">
         <v>269</v>
       </c>
-      <c r="K14" s="220"/>
-      <c r="L14" s="172" t="s">
+      <c r="K14" s="181"/>
+      <c r="L14" s="183" t="s">
         <v>352</v>
       </c>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="172"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="183"/>
       <c r="P14" s="118"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="142"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="215"/>
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="189"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="221"/>
-      <c r="L15" s="174"/>
-      <c r="M15" s="174"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="174"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="184"/>
       <c r="P15" s="118"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="141"/>
-      <c r="T15" s="141"/>
-      <c r="U15" s="141"/>
-      <c r="V15" s="141"/>
-      <c r="W15" s="142"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="152"/>
+      <c r="T15" s="152"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="152"/>
+      <c r="W15" s="215"/>
       <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
-      <c r="B16" s="189"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="174"/>
-      <c r="M16" s="174"/>
-      <c r="N16" s="174"/>
-      <c r="O16" s="174"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
       <c r="P16" s="118"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="145"/>
+      <c r="Q16" s="216"/>
+      <c r="R16" s="217"/>
+      <c r="S16" s="217"/>
+      <c r="T16" s="217"/>
+      <c r="U16" s="217"/>
+      <c r="V16" s="217"/>
+      <c r="W16" s="218"/>
       <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="221" t="s">
+      <c r="B17" s="166"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="221"/>
-      <c r="J17" s="141" t="s">
+      <c r="I17" s="182"/>
+      <c r="J17" s="152" t="s">
         <v>353</v>
       </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="174"/>
-      <c r="M17" s="174"/>
-      <c r="N17" s="174"/>
-      <c r="O17" s="175"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="184"/>
+      <c r="N17" s="184"/>
+      <c r="O17" s="185"/>
       <c r="P17" s="103"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
@@ -6626,44 +6642,44 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="189"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="231" t="s">
+      <c r="B18" s="166"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="I18" s="231"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="176"/>
-      <c r="O18" s="177"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="186"/>
+      <c r="M18" s="186"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="187"/>
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="178" t="s">
+      <c r="D19" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="180" t="s">
+      <c r="E19" s="229"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="229"/>
+      <c r="H19" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="181"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="231"/>
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6684,22 +6700,22 @@
     </row>
     <row r="21" spans="1:23" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="182" t="s">
+      <c r="B21" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="184"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="158"/>
       <c r="P21" s="12"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -6710,196 +6726,196 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="185" t="s">
+      <c r="B23" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186" t="s">
+      <c r="C23" s="160"/>
+      <c r="D23" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186" t="s">
+      <c r="E23" s="160"/>
+      <c r="F23" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186" t="s">
+      <c r="G23" s="160"/>
+      <c r="H23" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="186"/>
-      <c r="J23" s="186" t="s">
+      <c r="I23" s="160"/>
+      <c r="J23" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="186"/>
-      <c r="L23" s="186" t="s">
+      <c r="K23" s="160"/>
+      <c r="L23" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="186"/>
-      <c r="N23" s="186" t="s">
+      <c r="M23" s="160"/>
+      <c r="N23" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="215"/>
+      <c r="O23" s="161"/>
       <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="199">
+      <c r="B24" s="148">
         <v>1</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170">
+      <c r="C24" s="149"/>
+      <c r="D24" s="149">
         <v>2</v>
       </c>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170">
+      <c r="E24" s="149"/>
+      <c r="F24" s="149">
         <v>3</v>
       </c>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170">
+      <c r="G24" s="149"/>
+      <c r="H24" s="149">
         <v>4</v>
       </c>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170">
+      <c r="I24" s="149"/>
+      <c r="J24" s="149">
         <v>5</v>
       </c>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170">
+      <c r="K24" s="149"/>
+      <c r="L24" s="149">
         <v>6</v>
       </c>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170">
+      <c r="M24" s="149"/>
+      <c r="N24" s="149">
         <v>7</v>
       </c>
-      <c r="O24" s="171"/>
+      <c r="O24" s="150"/>
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="187"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="191" t="s">
+      <c r="B25" s="165"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="130" t="s">
         <v>351</v>
       </c>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204" t="s">
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="190" t="s">
         <v>356</v>
       </c>
-      <c r="M25" s="204"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="173"/>
+      <c r="M25" s="190"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="227"/>
       <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="175"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="191"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="185"/>
       <c r="P26" s="12"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="205"/>
-      <c r="K27" s="205"/>
-      <c r="L27" s="174" t="s">
+      <c r="B27" s="166"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="184" t="s">
         <v>357</v>
       </c>
-      <c r="M27" s="174"/>
-      <c r="N27" s="174"/>
-      <c r="O27" s="175"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="184"/>
+      <c r="O27" s="185"/>
       <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="189"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="174"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="174"/>
-      <c r="O28" s="175"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184"/>
+      <c r="O28" s="185"/>
       <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="205"/>
-      <c r="H29" s="205"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="205"/>
-      <c r="K29" s="205"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="191"/>
       <c r="L29" s="84"/>
       <c r="M29" s="84"/>
-      <c r="N29" s="174"/>
-      <c r="O29" s="175"/>
+      <c r="N29" s="184"/>
+      <c r="O29" s="185"/>
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="208"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="194"/>
       <c r="L30" s="85"/>
       <c r="M30" s="85"/>
-      <c r="N30" s="176"/>
-      <c r="O30" s="177"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="187"/>
       <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="22"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="206" t="s">
+      <c r="D31" s="192" t="s">
         <v>355</v>
       </c>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="207"/>
-      <c r="K31" s="207"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="193"/>
       <c r="L31" s="86"/>
       <c r="M31" s="86"/>
       <c r="N31" s="86"/>
@@ -6908,310 +6924,310 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
-      <c r="B32" s="199">
+      <c r="B32" s="148">
         <v>8</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170">
+      <c r="C32" s="149"/>
+      <c r="D32" s="149">
         <v>9</v>
       </c>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170">
+      <c r="E32" s="149"/>
+      <c r="F32" s="149">
         <v>10</v>
       </c>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170">
+      <c r="G32" s="149"/>
+      <c r="H32" s="149">
         <v>11</v>
       </c>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170">
+      <c r="I32" s="149"/>
+      <c r="J32" s="149">
         <v>12</v>
       </c>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170">
+      <c r="K32" s="149"/>
+      <c r="L32" s="149">
         <v>13</v>
       </c>
-      <c r="M32" s="170"/>
-      <c r="N32" s="170">
+      <c r="M32" s="149"/>
+      <c r="N32" s="149">
         <v>14</v>
       </c>
-      <c r="O32" s="171"/>
+      <c r="O32" s="150"/>
       <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
-      <c r="B33" s="187"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="191" t="s">
+      <c r="B33" s="165"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="130" t="s">
         <v>373</v>
       </c>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="157" t="s">
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="158"/>
-      <c r="N33" s="157" t="s">
+      <c r="M33" s="171"/>
+      <c r="N33" s="142" t="s">
         <v>372</v>
       </c>
-      <c r="O33" s="163"/>
+      <c r="O33" s="143"/>
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
-      <c r="B34" s="189"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="205"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="159"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="159"/>
-      <c r="O34" s="164"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="172"/>
+      <c r="N34" s="144"/>
+      <c r="O34" s="145"/>
       <c r="P34" s="12"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
-      <c r="B35" s="189"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="205"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="159"/>
-      <c r="M35" s="160"/>
-      <c r="N35" s="159"/>
-      <c r="O35" s="164"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="172"/>
+      <c r="N35" s="144"/>
+      <c r="O35" s="145"/>
       <c r="P35" s="12"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="205"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="159"/>
-      <c r="M36" s="160"/>
-      <c r="N36" s="159"/>
-      <c r="O36" s="164"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="172"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="145"/>
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="159"/>
-      <c r="M37" s="160"/>
-      <c r="N37" s="159"/>
-      <c r="O37" s="164"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="191"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="172"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="145"/>
       <c r="P37" s="12"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="190"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="208"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="208"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="162"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="165"/>
+      <c r="B38" s="167"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="194"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="135"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="146"/>
+      <c r="O38" s="147"/>
       <c r="P38" s="12"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="22"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="213" t="s">
+      <c r="D39" s="197" t="s">
         <v>381</v>
       </c>
-      <c r="E39" s="214"/>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="214"/>
-      <c r="I39" s="214"/>
-      <c r="J39" s="214"/>
-      <c r="K39" s="214"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="198"/>
       <c r="L39" s="30"/>
       <c r="M39" s="31"/>
-      <c r="N39" s="211"/>
-      <c r="O39" s="212"/>
+      <c r="N39" s="195"/>
+      <c r="O39" s="196"/>
       <c r="P39" s="12"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
-      <c r="B40" s="209">
+      <c r="B40" s="169">
         <v>15</v>
       </c>
-      <c r="C40" s="210"/>
-      <c r="D40" s="168">
+      <c r="C40" s="170"/>
+      <c r="D40" s="164">
         <v>16</v>
       </c>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168">
+      <c r="E40" s="164"/>
+      <c r="F40" s="164">
         <v>17</v>
       </c>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168">
+      <c r="G40" s="164"/>
+      <c r="H40" s="164">
         <v>18</v>
       </c>
-      <c r="I40" s="168"/>
-      <c r="J40" s="168">
+      <c r="I40" s="164"/>
+      <c r="J40" s="164">
         <v>19</v>
       </c>
-      <c r="K40" s="168"/>
-      <c r="L40" s="168">
+      <c r="K40" s="164"/>
+      <c r="L40" s="164">
         <v>20</v>
       </c>
-      <c r="M40" s="168"/>
-      <c r="N40" s="168">
+      <c r="M40" s="164"/>
+      <c r="N40" s="164">
         <v>21</v>
       </c>
-      <c r="O40" s="169"/>
+      <c r="O40" s="168"/>
       <c r="P40" s="12"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
-      <c r="B41" s="187"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="191"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="191"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="192"/>
-      <c r="K41" s="193"/>
-      <c r="L41" s="157" t="s">
+      <c r="B41" s="165"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="142" t="s">
         <v>393</v>
       </c>
-      <c r="M41" s="158"/>
-      <c r="N41" s="157"/>
-      <c r="O41" s="163"/>
+      <c r="M41" s="171"/>
+      <c r="N41" s="142"/>
+      <c r="O41" s="143"/>
       <c r="P41" s="12"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
-      <c r="B42" s="189"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="195"/>
-      <c r="L42" s="159"/>
-      <c r="M42" s="160"/>
-      <c r="N42" s="159"/>
-      <c r="O42" s="164"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="144"/>
+      <c r="O42" s="145"/>
       <c r="P42" s="12"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
-      <c r="B43" s="189"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="195"/>
-      <c r="L43" s="159"/>
-      <c r="M43" s="160"/>
-      <c r="N43" s="159"/>
-      <c r="O43" s="164"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="172"/>
+      <c r="N43" s="144"/>
+      <c r="O43" s="145"/>
       <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="189"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="195"/>
-      <c r="L44" s="159"/>
-      <c r="M44" s="160"/>
-      <c r="N44" s="159"/>
-      <c r="O44" s="164"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="144"/>
+      <c r="M44" s="172"/>
+      <c r="N44" s="144"/>
+      <c r="O44" s="145"/>
       <c r="P44" s="12"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="189"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="194"/>
-      <c r="K45" s="195"/>
-      <c r="L45" s="159"/>
-      <c r="M45" s="160"/>
-      <c r="N45" s="159"/>
-      <c r="O45" s="164"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="172"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="145"/>
       <c r="P45" s="12"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
-      <c r="B46" s="190"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="196"/>
-      <c r="K46" s="197"/>
-      <c r="L46" s="161"/>
-      <c r="M46" s="162"/>
-      <c r="N46" s="161"/>
-      <c r="O46" s="165"/>
+      <c r="B46" s="167"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="141"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="173"/>
+      <c r="N46" s="146"/>
+      <c r="O46" s="147"/>
       <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -7220,110 +7236,110 @@
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="200" t="s">
+      <c r="D47" s="199" t="s">
         <v>381</v>
       </c>
-      <c r="E47" s="201"/>
-      <c r="F47" s="201"/>
-      <c r="G47" s="201"/>
-      <c r="H47" s="201"/>
-      <c r="I47" s="201"/>
-      <c r="J47" s="201"/>
-      <c r="K47" s="201"/>
-      <c r="L47" s="202" t="s">
+      <c r="E47" s="200"/>
+      <c r="F47" s="200"/>
+      <c r="G47" s="200"/>
+      <c r="H47" s="200"/>
+      <c r="I47" s="200"/>
+      <c r="J47" s="200"/>
+      <c r="K47" s="200"/>
+      <c r="L47" s="201" t="s">
         <v>382</v>
       </c>
-      <c r="M47" s="203"/>
+      <c r="M47" s="202"/>
       <c r="N47" s="96"/>
       <c r="O47" s="97"/>
       <c r="P47" s="12"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
-      <c r="B48" s="199">
+      <c r="B48" s="148">
         <v>22</v>
       </c>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170">
+      <c r="C48" s="149"/>
+      <c r="D48" s="149">
         <v>23</v>
       </c>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170">
+      <c r="E48" s="149"/>
+      <c r="F48" s="149">
         <v>24</v>
       </c>
-      <c r="G48" s="170"/>
-      <c r="H48" s="168">
+      <c r="G48" s="149"/>
+      <c r="H48" s="164">
         <v>25</v>
       </c>
-      <c r="I48" s="168"/>
-      <c r="J48" s="168">
+      <c r="I48" s="164"/>
+      <c r="J48" s="164">
         <v>26</v>
       </c>
-      <c r="K48" s="168"/>
-      <c r="L48" s="168">
+      <c r="K48" s="164"/>
+      <c r="L48" s="164">
         <v>27</v>
       </c>
-      <c r="M48" s="168"/>
-      <c r="N48" s="168">
+      <c r="M48" s="164"/>
+      <c r="N48" s="164">
         <v>28</v>
       </c>
-      <c r="O48" s="169"/>
+      <c r="O48" s="168"/>
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
-      <c r="B49" s="187"/>
-      <c r="C49" s="188"/>
-      <c r="D49" s="191" t="s">
+      <c r="B49" s="165"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="130" t="s">
         <v>394</v>
       </c>
-      <c r="E49" s="188"/>
-      <c r="F49" s="191"/>
-      <c r="G49" s="188"/>
-      <c r="H49" s="191"/>
-      <c r="I49" s="188"/>
-      <c r="J49" s="192"/>
-      <c r="K49" s="193"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="157"/>
-      <c r="O49" s="163"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="137"/>
+      <c r="L49" s="142"/>
+      <c r="M49" s="171"/>
+      <c r="N49" s="142"/>
+      <c r="O49" s="143"/>
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="189"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="194"/>
-      <c r="K50" s="195"/>
-      <c r="L50" s="159"/>
-      <c r="M50" s="160"/>
-      <c r="N50" s="159"/>
-      <c r="O50" s="164"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="172"/>
+      <c r="N50" s="144"/>
+      <c r="O50" s="145"/>
       <c r="P50" s="12"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="189"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="194"/>
-      <c r="K51" s="195"/>
-      <c r="L51" s="159"/>
-      <c r="M51" s="160"/>
-      <c r="N51" s="159"/>
-      <c r="O51" s="164"/>
+      <c r="B51" s="166"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="139"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="172"/>
+      <c r="N51" s="144"/>
+      <c r="O51" s="145"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="88"/>
       <c r="R51" s="89"/>
@@ -7336,20 +7352,20 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="189"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="146"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="194"/>
-      <c r="K52" s="195"/>
-      <c r="L52" s="159"/>
-      <c r="M52" s="160"/>
-      <c r="N52" s="159"/>
-      <c r="O52" s="164"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="139"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="172"/>
+      <c r="N52" s="144"/>
+      <c r="O52" s="145"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="91"/>
       <c r="R52" s="92"/>
@@ -7362,52 +7378,52 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="189"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="146"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="147"/>
-      <c r="J53" s="194"/>
-      <c r="K53" s="195"/>
-      <c r="L53" s="159"/>
-      <c r="M53" s="160"/>
-      <c r="N53" s="159"/>
-      <c r="O53" s="164"/>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="141"/>
-      <c r="R53" s="141"/>
-      <c r="S53" s="141"/>
-      <c r="T53" s="141"/>
-      <c r="U53" s="141"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="172"/>
+      <c r="N53" s="144"/>
+      <c r="O53" s="145"/>
+      <c r="P53" s="151"/>
+      <c r="Q53" s="152"/>
+      <c r="R53" s="152"/>
+      <c r="S53" s="152"/>
+      <c r="T53" s="152"/>
+      <c r="U53" s="152"/>
       <c r="V53" s="92"/>
       <c r="W53" s="92"/>
       <c r="X53" s="93"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="190"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="148"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="148"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="148"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="197"/>
-      <c r="L54" s="161"/>
-      <c r="M54" s="162"/>
-      <c r="N54" s="161"/>
-      <c r="O54" s="165"/>
-      <c r="P54" s="140"/>
-      <c r="Q54" s="141"/>
-      <c r="R54" s="141"/>
-      <c r="S54" s="141"/>
-      <c r="T54" s="141"/>
-      <c r="U54" s="141"/>
+      <c r="B54" s="167"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="141"/>
+      <c r="L54" s="146"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="146"/>
+      <c r="O54" s="147"/>
+      <c r="P54" s="151"/>
+      <c r="Q54" s="152"/>
+      <c r="R54" s="152"/>
+      <c r="S54" s="152"/>
+      <c r="T54" s="152"/>
+      <c r="U54" s="152"/>
       <c r="V54" s="94"/>
       <c r="W54" s="94"/>
       <c r="X54" s="95"/>
@@ -7416,167 +7432,167 @@
       <c r="A55" s="6"/>
       <c r="B55" s="17"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="152" t="s">
+      <c r="D55" s="221" t="s">
         <v>631</v>
       </c>
-      <c r="E55" s="153"/>
-      <c r="F55" s="153"/>
-      <c r="G55" s="153"/>
-      <c r="H55" s="153"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="153"/>
-      <c r="N55" s="153"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="140"/>
-      <c r="Q55" s="141"/>
-      <c r="R55" s="141"/>
-      <c r="S55" s="141"/>
-      <c r="T55" s="141"/>
-      <c r="U55" s="141"/>
+      <c r="E55" s="222"/>
+      <c r="F55" s="222"/>
+      <c r="G55" s="222"/>
+      <c r="H55" s="222"/>
+      <c r="I55" s="222"/>
+      <c r="J55" s="222"/>
+      <c r="K55" s="222"/>
+      <c r="L55" s="222"/>
+      <c r="M55" s="222"/>
+      <c r="N55" s="222"/>
+      <c r="O55" s="223"/>
+      <c r="P55" s="151"/>
+      <c r="Q55" s="152"/>
+      <c r="R55" s="152"/>
+      <c r="S55" s="152"/>
+      <c r="T55" s="152"/>
+      <c r="U55" s="152"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
-      <c r="B56" s="198">
+      <c r="B56" s="203">
         <v>29</v>
       </c>
-      <c r="C56" s="168"/>
-      <c r="D56" s="168">
+      <c r="C56" s="164"/>
+      <c r="D56" s="164">
         <v>30</v>
       </c>
-      <c r="E56" s="168"/>
-      <c r="F56" s="166"/>
-      <c r="G56" s="166"/>
-      <c r="N56" s="166"/>
-      <c r="O56" s="167"/>
-      <c r="P56" s="140"/>
-      <c r="Q56" s="141"/>
-      <c r="R56" s="141"/>
-      <c r="S56" s="141"/>
-      <c r="T56" s="141"/>
-      <c r="U56" s="141"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="204"/>
+      <c r="G56" s="204"/>
+      <c r="N56" s="204"/>
+      <c r="O56" s="226"/>
+      <c r="P56" s="151"/>
+      <c r="Q56" s="152"/>
+      <c r="R56" s="152"/>
+      <c r="S56" s="152"/>
+      <c r="T56" s="152"/>
+      <c r="U56" s="152"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="187"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="191"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="191"/>
-      <c r="G57" s="188"/>
-      <c r="H57" s="191"/>
-      <c r="I57" s="188"/>
-      <c r="J57" s="192"/>
-      <c r="K57" s="193"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="158"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="163"/>
-      <c r="P57" s="230"/>
-      <c r="Q57" s="227"/>
-      <c r="R57" s="227"/>
-      <c r="S57" s="227"/>
-      <c r="T57" s="227"/>
-      <c r="U57" s="227"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="136"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="142"/>
+      <c r="M57" s="171"/>
+      <c r="N57" s="142"/>
+      <c r="O57" s="143"/>
+      <c r="P57" s="153"/>
+      <c r="Q57" s="154"/>
+      <c r="R57" s="154"/>
+      <c r="S57" s="154"/>
+      <c r="T57" s="154"/>
+      <c r="U57" s="154"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="189"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="146"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="194"/>
-      <c r="K58" s="195"/>
-      <c r="L58" s="159"/>
-      <c r="M58" s="160"/>
-      <c r="N58" s="159"/>
-      <c r="O58" s="164"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="144"/>
+      <c r="M58" s="172"/>
+      <c r="N58" s="144"/>
+      <c r="O58" s="145"/>
       <c r="P58" s="12"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="189"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="147"/>
-      <c r="J59" s="194"/>
-      <c r="K59" s="195"/>
-      <c r="L59" s="159"/>
-      <c r="M59" s="160"/>
-      <c r="N59" s="159"/>
-      <c r="O59" s="164"/>
+      <c r="B59" s="166"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="132"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="139"/>
+      <c r="L59" s="144"/>
+      <c r="M59" s="172"/>
+      <c r="N59" s="144"/>
+      <c r="O59" s="145"/>
       <c r="P59" s="12"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="B60" s="189"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="147"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="147"/>
-      <c r="J60" s="194"/>
-      <c r="K60" s="195"/>
-      <c r="L60" s="159"/>
-      <c r="M60" s="160"/>
-      <c r="N60" s="159"/>
-      <c r="O60" s="164"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="172"/>
+      <c r="N60" s="144"/>
+      <c r="O60" s="145"/>
       <c r="P60" s="12"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
-      <c r="B61" s="189"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="146"/>
-      <c r="I61" s="147"/>
-      <c r="J61" s="194"/>
-      <c r="K61" s="195"/>
-      <c r="L61" s="159"/>
-      <c r="M61" s="160"/>
-      <c r="N61" s="159"/>
-      <c r="O61" s="164"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="138"/>
+      <c r="K61" s="139"/>
+      <c r="L61" s="144"/>
+      <c r="M61" s="172"/>
+      <c r="N61" s="144"/>
+      <c r="O61" s="145"/>
       <c r="P61" s="12"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="190"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="148"/>
-      <c r="G62" s="149"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="149"/>
-      <c r="J62" s="196"/>
-      <c r="K62" s="197"/>
-      <c r="L62" s="161"/>
-      <c r="M62" s="162"/>
-      <c r="N62" s="161"/>
-      <c r="O62" s="165"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="135"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="135"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="146"/>
+      <c r="M62" s="173"/>
+      <c r="N62" s="146"/>
+      <c r="O62" s="147"/>
       <c r="P62" s="12"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="156"/>
+      <c r="D63" s="224"/>
+      <c r="E63" s="225"/>
       <c r="F63" s="98"/>
       <c r="G63" s="99"/>
       <c r="H63" s="24"/>
@@ -7607,22 +7623,22 @@
     </row>
     <row r="65" spans="1:26" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="182" t="s">
+      <c r="B65" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="183"/>
-      <c r="D65" s="183"/>
-      <c r="E65" s="183"/>
-      <c r="F65" s="183"/>
-      <c r="G65" s="183"/>
-      <c r="H65" s="183"/>
-      <c r="I65" s="183"/>
-      <c r="J65" s="183"/>
-      <c r="K65" s="183"/>
-      <c r="L65" s="183"/>
-      <c r="M65" s="183"/>
-      <c r="N65" s="183"/>
-      <c r="O65" s="184"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="157"/>
+      <c r="M65" s="157"/>
+      <c r="N65" s="157"/>
+      <c r="O65" s="158"/>
       <c r="P65" s="12"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
@@ -7633,172 +7649,172 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="185" t="s">
+      <c r="B67" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="186"/>
-      <c r="D67" s="186" t="s">
+      <c r="C67" s="160"/>
+      <c r="D67" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="186"/>
-      <c r="F67" s="186" t="s">
+      <c r="E67" s="160"/>
+      <c r="F67" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="186"/>
-      <c r="H67" s="186" t="s">
+      <c r="G67" s="160"/>
+      <c r="H67" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="I67" s="186"/>
-      <c r="J67" s="186" t="s">
+      <c r="I67" s="160"/>
+      <c r="J67" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="K67" s="186"/>
-      <c r="L67" s="186" t="s">
+      <c r="K67" s="160"/>
+      <c r="L67" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="M67" s="186"/>
-      <c r="N67" s="186" t="s">
+      <c r="M67" s="160"/>
+      <c r="N67" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="O67" s="215"/>
+      <c r="O67" s="161"/>
       <c r="P67" s="12"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="199"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
-      <c r="E68" s="170"/>
-      <c r="F68" s="170">
+      <c r="B68" s="148"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="149">
         <v>1</v>
       </c>
-      <c r="G68" s="170"/>
-      <c r="H68" s="170">
+      <c r="G68" s="149"/>
+      <c r="H68" s="149">
         <v>2</v>
       </c>
-      <c r="I68" s="170"/>
-      <c r="J68" s="170">
+      <c r="I68" s="149"/>
+      <c r="J68" s="149">
         <v>3</v>
       </c>
-      <c r="K68" s="170"/>
-      <c r="L68" s="170">
+      <c r="K68" s="149"/>
+      <c r="L68" s="149">
         <v>4</v>
       </c>
-      <c r="M68" s="170"/>
-      <c r="N68" s="170">
+      <c r="M68" s="149"/>
+      <c r="N68" s="149">
         <v>5</v>
       </c>
-      <c r="O68" s="171"/>
+      <c r="O68" s="150"/>
       <c r="P68" s="12"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="40"/>
       <c r="C69" s="32"/>
-      <c r="D69" s="191"/>
-      <c r="E69" s="188"/>
-      <c r="F69" s="191"/>
-      <c r="G69" s="188"/>
-      <c r="H69" s="191"/>
-      <c r="I69" s="188"/>
-      <c r="J69" s="150" t="s">
+      <c r="D69" s="130"/>
+      <c r="E69" s="131"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="131"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="131"/>
+      <c r="J69" s="219" t="s">
         <v>633</v>
       </c>
-      <c r="K69" s="151"/>
-      <c r="L69" s="192"/>
-      <c r="M69" s="193"/>
-      <c r="N69" s="157"/>
-      <c r="O69" s="163"/>
+      <c r="K69" s="220"/>
+      <c r="L69" s="136"/>
+      <c r="M69" s="137"/>
+      <c r="N69" s="142"/>
+      <c r="O69" s="143"/>
       <c r="P69" s="12"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="41"/>
       <c r="C70" s="33"/>
-      <c r="D70" s="146"/>
-      <c r="E70" s="147"/>
-      <c r="F70" s="146"/>
-      <c r="G70" s="147"/>
-      <c r="H70" s="146"/>
-      <c r="I70" s="147"/>
-      <c r="J70" s="146"/>
-      <c r="K70" s="147"/>
-      <c r="L70" s="194"/>
-      <c r="M70" s="195"/>
-      <c r="N70" s="159"/>
-      <c r="O70" s="164"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="132"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="132"/>
+      <c r="K70" s="133"/>
+      <c r="L70" s="138"/>
+      <c r="M70" s="139"/>
+      <c r="N70" s="144"/>
+      <c r="O70" s="145"/>
       <c r="P70" s="12"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="41"/>
       <c r="C71" s="33"/>
-      <c r="D71" s="146"/>
-      <c r="E71" s="147"/>
-      <c r="F71" s="146"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="146"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="146"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="194"/>
-      <c r="M71" s="195"/>
-      <c r="N71" s="159"/>
-      <c r="O71" s="164"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="133"/>
+      <c r="F71" s="132"/>
+      <c r="G71" s="133"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="133"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="133"/>
+      <c r="L71" s="138"/>
+      <c r="M71" s="139"/>
+      <c r="N71" s="144"/>
+      <c r="O71" s="145"/>
       <c r="P71" s="12"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="41"/>
       <c r="C72" s="33"/>
-      <c r="D72" s="146"/>
-      <c r="E72" s="147"/>
-      <c r="F72" s="146"/>
-      <c r="G72" s="147"/>
-      <c r="H72" s="146"/>
-      <c r="I72" s="147"/>
-      <c r="J72" s="146"/>
-      <c r="K72" s="147"/>
-      <c r="L72" s="194"/>
-      <c r="M72" s="195"/>
-      <c r="N72" s="159"/>
-      <c r="O72" s="164"/>
+      <c r="D72" s="132"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="132"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="132"/>
+      <c r="I72" s="133"/>
+      <c r="J72" s="132"/>
+      <c r="K72" s="133"/>
+      <c r="L72" s="138"/>
+      <c r="M72" s="139"/>
+      <c r="N72" s="144"/>
+      <c r="O72" s="145"/>
       <c r="P72" s="12"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="41"/>
       <c r="C73" s="33"/>
-      <c r="D73" s="146"/>
-      <c r="E73" s="147"/>
-      <c r="F73" s="146"/>
-      <c r="G73" s="147"/>
-      <c r="H73" s="146"/>
-      <c r="I73" s="147"/>
-      <c r="J73" s="146"/>
-      <c r="K73" s="147"/>
-      <c r="L73" s="194"/>
-      <c r="M73" s="195"/>
-      <c r="N73" s="159"/>
-      <c r="O73" s="164"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="133"/>
+      <c r="F73" s="132"/>
+      <c r="G73" s="133"/>
+      <c r="H73" s="132"/>
+      <c r="I73" s="133"/>
+      <c r="J73" s="132"/>
+      <c r="K73" s="133"/>
+      <c r="L73" s="138"/>
+      <c r="M73" s="139"/>
+      <c r="N73" s="144"/>
+      <c r="O73" s="145"/>
       <c r="P73" s="12"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="41"/>
       <c r="C74" s="33"/>
-      <c r="D74" s="148"/>
-      <c r="E74" s="149"/>
-      <c r="F74" s="148"/>
-      <c r="G74" s="149"/>
-      <c r="H74" s="148"/>
-      <c r="I74" s="149"/>
-      <c r="J74" s="148"/>
-      <c r="K74" s="149"/>
-      <c r="L74" s="196"/>
-      <c r="M74" s="197"/>
-      <c r="N74" s="161"/>
-      <c r="O74" s="165"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="135"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="135"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="135"/>
+      <c r="J74" s="134"/>
+      <c r="K74" s="135"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="141"/>
+      <c r="N74" s="146"/>
+      <c r="O74" s="147"/>
       <c r="P74" s="12"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
@@ -7821,74 +7837,74 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="199">
+      <c r="B76" s="148">
         <v>6</v>
       </c>
-      <c r="C76" s="170"/>
-      <c r="D76" s="170">
+      <c r="C76" s="149"/>
+      <c r="D76" s="149">
         <v>7</v>
       </c>
-      <c r="E76" s="170"/>
-      <c r="F76" s="170">
+      <c r="E76" s="149"/>
+      <c r="F76" s="149">
         <v>8</v>
       </c>
-      <c r="G76" s="170"/>
-      <c r="H76" s="170">
+      <c r="G76" s="149"/>
+      <c r="H76" s="149">
         <v>9</v>
       </c>
-      <c r="I76" s="170"/>
-      <c r="J76" s="170">
+      <c r="I76" s="149"/>
+      <c r="J76" s="149">
         <v>10</v>
       </c>
-      <c r="K76" s="170"/>
-      <c r="L76" s="170">
+      <c r="K76" s="149"/>
+      <c r="L76" s="149">
         <v>11</v>
       </c>
-      <c r="M76" s="170"/>
-      <c r="N76" s="170">
+      <c r="M76" s="149"/>
+      <c r="N76" s="149">
         <v>12</v>
       </c>
-      <c r="O76" s="171"/>
+      <c r="O76" s="150"/>
       <c r="P76" s="12"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="42"/>
       <c r="C77" s="35"/>
-      <c r="D77" s="191"/>
-      <c r="E77" s="188"/>
-      <c r="F77" s="191"/>
-      <c r="G77" s="188"/>
-      <c r="H77" s="191" t="s">
+      <c r="D77" s="130"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="130"/>
+      <c r="G77" s="131"/>
+      <c r="H77" s="130" t="s">
         <v>696</v>
       </c>
-      <c r="I77" s="188"/>
-      <c r="J77" s="191" t="s">
+      <c r="I77" s="131"/>
+      <c r="J77" s="130" t="s">
         <v>697</v>
       </c>
-      <c r="K77" s="188"/>
-      <c r="L77" s="192"/>
-      <c r="M77" s="193"/>
-      <c r="N77" s="157"/>
-      <c r="O77" s="163"/>
+      <c r="K77" s="131"/>
+      <c r="L77" s="136"/>
+      <c r="M77" s="137"/>
+      <c r="N77" s="142"/>
+      <c r="O77" s="143"/>
       <c r="P77" s="12"/>
     </row>
     <row r="78" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="42"/>
       <c r="C78" s="35"/>
-      <c r="D78" s="146"/>
-      <c r="E78" s="147"/>
-      <c r="F78" s="146"/>
-      <c r="G78" s="147"/>
-      <c r="H78" s="146"/>
-      <c r="I78" s="147"/>
-      <c r="J78" s="146"/>
-      <c r="K78" s="147"/>
-      <c r="L78" s="194"/>
-      <c r="M78" s="195"/>
-      <c r="N78" s="159"/>
-      <c r="O78" s="164"/>
+      <c r="D78" s="132"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="132"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="132"/>
+      <c r="I78" s="133"/>
+      <c r="J78" s="132"/>
+      <c r="K78" s="133"/>
+      <c r="L78" s="138"/>
+      <c r="M78" s="139"/>
+      <c r="N78" s="144"/>
+      <c r="O78" s="145"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
@@ -7904,114 +7920,114 @@
       <c r="A79" s="6"/>
       <c r="B79" s="42"/>
       <c r="C79" s="35"/>
-      <c r="D79" s="146"/>
-      <c r="E79" s="147"/>
-      <c r="F79" s="146"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="146"/>
-      <c r="I79" s="147"/>
-      <c r="J79" s="146"/>
-      <c r="K79" s="147"/>
-      <c r="L79" s="194"/>
-      <c r="M79" s="195"/>
-      <c r="N79" s="159"/>
-      <c r="O79" s="164"/>
+      <c r="D79" s="132"/>
+      <c r="E79" s="133"/>
+      <c r="F79" s="132"/>
+      <c r="G79" s="133"/>
+      <c r="H79" s="132"/>
+      <c r="I79" s="133"/>
+      <c r="J79" s="132"/>
+      <c r="K79" s="133"/>
+      <c r="L79" s="138"/>
+      <c r="M79" s="139"/>
+      <c r="N79" s="144"/>
+      <c r="O79" s="145"/>
       <c r="P79" s="117"/>
-      <c r="Q79" s="137" t="s">
+      <c r="Q79" s="212" t="s">
         <v>724</v>
       </c>
-      <c r="R79" s="138"/>
-      <c r="S79" s="138"/>
-      <c r="T79" s="138"/>
-      <c r="U79" s="138"/>
-      <c r="V79" s="138"/>
-      <c r="W79" s="138"/>
-      <c r="X79" s="138"/>
-      <c r="Y79" s="139"/>
+      <c r="R79" s="213"/>
+      <c r="S79" s="213"/>
+      <c r="T79" s="213"/>
+      <c r="U79" s="213"/>
+      <c r="V79" s="213"/>
+      <c r="W79" s="213"/>
+      <c r="X79" s="213"/>
+      <c r="Y79" s="214"/>
       <c r="Z79" s="12"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="42"/>
       <c r="C80" s="35"/>
-      <c r="D80" s="146"/>
-      <c r="E80" s="147"/>
-      <c r="F80" s="146"/>
-      <c r="G80" s="147"/>
-      <c r="H80" s="146"/>
-      <c r="I80" s="147"/>
-      <c r="J80" s="146"/>
-      <c r="K80" s="147"/>
-      <c r="L80" s="194"/>
-      <c r="M80" s="195"/>
-      <c r="N80" s="159"/>
-      <c r="O80" s="164"/>
+      <c r="D80" s="132"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="132"/>
+      <c r="G80" s="133"/>
+      <c r="H80" s="132"/>
+      <c r="I80" s="133"/>
+      <c r="J80" s="132"/>
+      <c r="K80" s="133"/>
+      <c r="L80" s="138"/>
+      <c r="M80" s="139"/>
+      <c r="N80" s="144"/>
+      <c r="O80" s="145"/>
       <c r="P80" s="117"/>
-      <c r="Q80" s="140"/>
-      <c r="R80" s="141"/>
-      <c r="S80" s="141"/>
-      <c r="T80" s="141"/>
-      <c r="U80" s="141"/>
-      <c r="V80" s="141"/>
-      <c r="W80" s="141"/>
-      <c r="X80" s="141"/>
-      <c r="Y80" s="142"/>
+      <c r="Q80" s="151"/>
+      <c r="R80" s="152"/>
+      <c r="S80" s="152"/>
+      <c r="T80" s="152"/>
+      <c r="U80" s="152"/>
+      <c r="V80" s="152"/>
+      <c r="W80" s="152"/>
+      <c r="X80" s="152"/>
+      <c r="Y80" s="215"/>
       <c r="Z80" s="12"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="43"/>
       <c r="C81" s="36"/>
-      <c r="D81" s="146"/>
-      <c r="E81" s="147"/>
-      <c r="F81" s="146"/>
-      <c r="G81" s="147"/>
-      <c r="H81" s="146"/>
-      <c r="I81" s="147"/>
-      <c r="J81" s="146"/>
-      <c r="K81" s="147"/>
-      <c r="L81" s="194"/>
-      <c r="M81" s="195"/>
-      <c r="N81" s="159"/>
-      <c r="O81" s="164"/>
+      <c r="D81" s="132"/>
+      <c r="E81" s="133"/>
+      <c r="F81" s="132"/>
+      <c r="G81" s="133"/>
+      <c r="H81" s="132"/>
+      <c r="I81" s="133"/>
+      <c r="J81" s="132"/>
+      <c r="K81" s="133"/>
+      <c r="L81" s="138"/>
+      <c r="M81" s="139"/>
+      <c r="N81" s="144"/>
+      <c r="O81" s="145"/>
       <c r="P81" s="117"/>
-      <c r="Q81" s="140"/>
-      <c r="R81" s="141"/>
-      <c r="S81" s="141"/>
-      <c r="T81" s="141"/>
-      <c r="U81" s="141"/>
-      <c r="V81" s="141"/>
-      <c r="W81" s="141"/>
-      <c r="X81" s="141"/>
-      <c r="Y81" s="142"/>
+      <c r="Q81" s="151"/>
+      <c r="R81" s="152"/>
+      <c r="S81" s="152"/>
+      <c r="T81" s="152"/>
+      <c r="U81" s="152"/>
+      <c r="V81" s="152"/>
+      <c r="W81" s="152"/>
+      <c r="X81" s="152"/>
+      <c r="Y81" s="215"/>
       <c r="Z81" s="12"/>
     </row>
     <row r="82" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="41"/>
       <c r="C82" s="33"/>
-      <c r="D82" s="148"/>
-      <c r="E82" s="149"/>
-      <c r="F82" s="148"/>
-      <c r="G82" s="149"/>
-      <c r="H82" s="148"/>
-      <c r="I82" s="149"/>
-      <c r="J82" s="148"/>
-      <c r="K82" s="149"/>
-      <c r="L82" s="196"/>
-      <c r="M82" s="197"/>
-      <c r="N82" s="161"/>
-      <c r="O82" s="165"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="135"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="135"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="135"/>
+      <c r="J82" s="134"/>
+      <c r="K82" s="135"/>
+      <c r="L82" s="140"/>
+      <c r="M82" s="141"/>
+      <c r="N82" s="146"/>
+      <c r="O82" s="147"/>
       <c r="P82" s="117"/>
-      <c r="Q82" s="143"/>
-      <c r="R82" s="144"/>
-      <c r="S82" s="144"/>
-      <c r="T82" s="144"/>
-      <c r="U82" s="144"/>
-      <c r="V82" s="144"/>
-      <c r="W82" s="144"/>
-      <c r="X82" s="144"/>
-      <c r="Y82" s="145"/>
+      <c r="Q82" s="216"/>
+      <c r="R82" s="217"/>
+      <c r="S82" s="217"/>
+      <c r="T82" s="217"/>
+      <c r="U82" s="217"/>
+      <c r="V82" s="217"/>
+      <c r="W82" s="217"/>
+      <c r="X82" s="217"/>
+      <c r="Y82" s="218"/>
       <c r="Z82" s="12"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
@@ -8022,12 +8038,12 @@
       <c r="E83" s="9"/>
       <c r="F83" s="8"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="135" t="s">
+      <c r="H83" s="210" t="s">
         <v>396</v>
       </c>
-      <c r="I83" s="136"/>
-      <c r="J83" s="136"/>
-      <c r="K83" s="136"/>
+      <c r="I83" s="211"/>
+      <c r="J83" s="211"/>
+      <c r="K83" s="211"/>
       <c r="L83" s="127"/>
       <c r="M83" s="128"/>
       <c r="N83" s="7"/>
@@ -8045,142 +8061,142 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
-      <c r="B84" s="209">
+      <c r="B84" s="169">
         <v>13</v>
       </c>
-      <c r="C84" s="210"/>
-      <c r="D84" s="168">
+      <c r="C84" s="170"/>
+      <c r="D84" s="164">
         <v>14</v>
       </c>
-      <c r="E84" s="168"/>
-      <c r="F84" s="168">
+      <c r="E84" s="164"/>
+      <c r="F84" s="164">
         <v>15</v>
       </c>
-      <c r="G84" s="168"/>
-      <c r="H84" s="168">
+      <c r="G84" s="164"/>
+      <c r="H84" s="164">
         <v>16</v>
       </c>
-      <c r="I84" s="168"/>
-      <c r="J84" s="168">
+      <c r="I84" s="164"/>
+      <c r="J84" s="164">
         <v>17</v>
       </c>
-      <c r="K84" s="168"/>
-      <c r="L84" s="168">
+      <c r="K84" s="164"/>
+      <c r="L84" s="164">
         <v>18</v>
       </c>
-      <c r="M84" s="168"/>
-      <c r="N84" s="168">
+      <c r="M84" s="164"/>
+      <c r="N84" s="164">
         <v>19</v>
       </c>
-      <c r="O84" s="169"/>
+      <c r="O84" s="168"/>
       <c r="P84" s="12"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="42"/>
       <c r="C85" s="34"/>
-      <c r="D85" s="191"/>
-      <c r="E85" s="188"/>
-      <c r="F85" s="191"/>
-      <c r="G85" s="188"/>
-      <c r="H85" s="191"/>
-      <c r="I85" s="188"/>
-      <c r="J85" s="191"/>
-      <c r="K85" s="188"/>
-      <c r="L85" s="192"/>
-      <c r="M85" s="193"/>
-      <c r="N85" s="157"/>
-      <c r="O85" s="163"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="130"/>
+      <c r="G85" s="131"/>
+      <c r="H85" s="130"/>
+      <c r="I85" s="131"/>
+      <c r="J85" s="130"/>
+      <c r="K85" s="131"/>
+      <c r="L85" s="136"/>
+      <c r="M85" s="137"/>
+      <c r="N85" s="142"/>
+      <c r="O85" s="143"/>
       <c r="P85" s="12"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="44"/>
       <c r="C86" s="37"/>
-      <c r="D86" s="146"/>
-      <c r="E86" s="147"/>
-      <c r="F86" s="146"/>
-      <c r="G86" s="147"/>
-      <c r="H86" s="146"/>
-      <c r="I86" s="147"/>
-      <c r="J86" s="146"/>
-      <c r="K86" s="147"/>
-      <c r="L86" s="194"/>
-      <c r="M86" s="195"/>
-      <c r="N86" s="159"/>
-      <c r="O86" s="164"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="133"/>
+      <c r="F86" s="132"/>
+      <c r="G86" s="133"/>
+      <c r="H86" s="132"/>
+      <c r="I86" s="133"/>
+      <c r="J86" s="132"/>
+      <c r="K86" s="133"/>
+      <c r="L86" s="138"/>
+      <c r="M86" s="139"/>
+      <c r="N86" s="144"/>
+      <c r="O86" s="145"/>
       <c r="P86" s="12"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="44"/>
       <c r="C87" s="37"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="147"/>
-      <c r="F87" s="146"/>
-      <c r="G87" s="147"/>
-      <c r="H87" s="146"/>
-      <c r="I87" s="147"/>
-      <c r="J87" s="146"/>
-      <c r="K87" s="147"/>
-      <c r="L87" s="194"/>
-      <c r="M87" s="195"/>
-      <c r="N87" s="159"/>
-      <c r="O87" s="164"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="133"/>
+      <c r="F87" s="132"/>
+      <c r="G87" s="133"/>
+      <c r="H87" s="132"/>
+      <c r="I87" s="133"/>
+      <c r="J87" s="132"/>
+      <c r="K87" s="133"/>
+      <c r="L87" s="138"/>
+      <c r="M87" s="139"/>
+      <c r="N87" s="144"/>
+      <c r="O87" s="145"/>
       <c r="P87" s="12"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="44"/>
       <c r="C88" s="37"/>
-      <c r="D88" s="146"/>
-      <c r="E88" s="147"/>
-      <c r="F88" s="146"/>
-      <c r="G88" s="147"/>
-      <c r="H88" s="146"/>
-      <c r="I88" s="147"/>
-      <c r="J88" s="146"/>
-      <c r="K88" s="147"/>
-      <c r="L88" s="194"/>
-      <c r="M88" s="195"/>
-      <c r="N88" s="159"/>
-      <c r="O88" s="164"/>
+      <c r="D88" s="132"/>
+      <c r="E88" s="133"/>
+      <c r="F88" s="132"/>
+      <c r="G88" s="133"/>
+      <c r="H88" s="132"/>
+      <c r="I88" s="133"/>
+      <c r="J88" s="132"/>
+      <c r="K88" s="133"/>
+      <c r="L88" s="138"/>
+      <c r="M88" s="139"/>
+      <c r="N88" s="144"/>
+      <c r="O88" s="145"/>
       <c r="P88" s="12"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="45"/>
       <c r="C89" s="38"/>
-      <c r="D89" s="146"/>
-      <c r="E89" s="147"/>
-      <c r="F89" s="146"/>
-      <c r="G89" s="147"/>
-      <c r="H89" s="146"/>
-      <c r="I89" s="147"/>
-      <c r="J89" s="146"/>
-      <c r="K89" s="147"/>
-      <c r="L89" s="194"/>
-      <c r="M89" s="195"/>
-      <c r="N89" s="159"/>
-      <c r="O89" s="164"/>
+      <c r="D89" s="132"/>
+      <c r="E89" s="133"/>
+      <c r="F89" s="132"/>
+      <c r="G89" s="133"/>
+      <c r="H89" s="132"/>
+      <c r="I89" s="133"/>
+      <c r="J89" s="132"/>
+      <c r="K89" s="133"/>
+      <c r="L89" s="138"/>
+      <c r="M89" s="139"/>
+      <c r="N89" s="144"/>
+      <c r="O89" s="145"/>
       <c r="P89" s="12"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="41"/>
       <c r="C90" s="33"/>
-      <c r="D90" s="148"/>
-      <c r="E90" s="149"/>
-      <c r="F90" s="148"/>
-      <c r="G90" s="149"/>
-      <c r="H90" s="148"/>
-      <c r="I90" s="149"/>
-      <c r="J90" s="148"/>
-      <c r="K90" s="149"/>
-      <c r="L90" s="196"/>
-      <c r="M90" s="197"/>
-      <c r="N90" s="161"/>
-      <c r="O90" s="165"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="135"/>
+      <c r="H90" s="134"/>
+      <c r="I90" s="135"/>
+      <c r="J90" s="134"/>
+      <c r="K90" s="135"/>
+      <c r="L90" s="140"/>
+      <c r="M90" s="141"/>
+      <c r="N90" s="146"/>
+      <c r="O90" s="147"/>
       <c r="P90" s="12"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
@@ -8203,142 +8219,142 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
-      <c r="B92" s="199">
+      <c r="B92" s="148">
         <v>20</v>
       </c>
-      <c r="C92" s="170"/>
-      <c r="D92" s="170">
+      <c r="C92" s="149"/>
+      <c r="D92" s="149">
         <v>21</v>
       </c>
-      <c r="E92" s="170"/>
-      <c r="F92" s="170">
+      <c r="E92" s="149"/>
+      <c r="F92" s="149">
         <v>22</v>
       </c>
-      <c r="G92" s="170"/>
-      <c r="H92" s="168">
+      <c r="G92" s="149"/>
+      <c r="H92" s="164">
         <v>23</v>
       </c>
-      <c r="I92" s="168"/>
-      <c r="J92" s="168">
+      <c r="I92" s="164"/>
+      <c r="J92" s="164">
         <v>24</v>
       </c>
-      <c r="K92" s="168"/>
-      <c r="L92" s="168">
+      <c r="K92" s="164"/>
+      <c r="L92" s="164">
         <v>25</v>
       </c>
-      <c r="M92" s="168"/>
-      <c r="N92" s="168">
+      <c r="M92" s="164"/>
+      <c r="N92" s="164">
         <v>26</v>
       </c>
-      <c r="O92" s="169"/>
+      <c r="O92" s="168"/>
       <c r="P92" s="12"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="46"/>
       <c r="C93" s="34"/>
-      <c r="D93" s="191"/>
-      <c r="E93" s="188"/>
-      <c r="F93" s="191"/>
-      <c r="G93" s="188"/>
-      <c r="H93" s="191"/>
-      <c r="I93" s="188"/>
-      <c r="J93" s="191"/>
-      <c r="K93" s="188"/>
-      <c r="L93" s="192"/>
-      <c r="M93" s="193"/>
-      <c r="N93" s="157"/>
-      <c r="O93" s="163"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="131"/>
+      <c r="F93" s="130"/>
+      <c r="G93" s="131"/>
+      <c r="H93" s="130"/>
+      <c r="I93" s="131"/>
+      <c r="J93" s="130"/>
+      <c r="K93" s="131"/>
+      <c r="L93" s="136"/>
+      <c r="M93" s="137"/>
+      <c r="N93" s="142"/>
+      <c r="O93" s="143"/>
       <c r="P93" s="12"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="43"/>
       <c r="C94" s="39"/>
-      <c r="D94" s="146"/>
-      <c r="E94" s="147"/>
-      <c r="F94" s="146"/>
-      <c r="G94" s="147"/>
-      <c r="H94" s="146"/>
-      <c r="I94" s="147"/>
-      <c r="J94" s="146"/>
-      <c r="K94" s="147"/>
-      <c r="L94" s="194"/>
-      <c r="M94" s="195"/>
-      <c r="N94" s="159"/>
-      <c r="O94" s="164"/>
+      <c r="D94" s="132"/>
+      <c r="E94" s="133"/>
+      <c r="F94" s="132"/>
+      <c r="G94" s="133"/>
+      <c r="H94" s="132"/>
+      <c r="I94" s="133"/>
+      <c r="J94" s="132"/>
+      <c r="K94" s="133"/>
+      <c r="L94" s="138"/>
+      <c r="M94" s="139"/>
+      <c r="N94" s="144"/>
+      <c r="O94" s="145"/>
       <c r="P94" s="12"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="43"/>
       <c r="C95" s="39"/>
-      <c r="D95" s="146"/>
-      <c r="E95" s="147"/>
-      <c r="F95" s="146"/>
-      <c r="G95" s="147"/>
-      <c r="H95" s="146"/>
-      <c r="I95" s="147"/>
-      <c r="J95" s="146"/>
-      <c r="K95" s="147"/>
-      <c r="L95" s="194"/>
-      <c r="M95" s="195"/>
-      <c r="N95" s="159"/>
-      <c r="O95" s="164"/>
+      <c r="D95" s="132"/>
+      <c r="E95" s="133"/>
+      <c r="F95" s="132"/>
+      <c r="G95" s="133"/>
+      <c r="H95" s="132"/>
+      <c r="I95" s="133"/>
+      <c r="J95" s="132"/>
+      <c r="K95" s="133"/>
+      <c r="L95" s="138"/>
+      <c r="M95" s="139"/>
+      <c r="N95" s="144"/>
+      <c r="O95" s="145"/>
       <c r="P95" s="12"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="43"/>
       <c r="C96" s="39"/>
-      <c r="D96" s="146"/>
-      <c r="E96" s="147"/>
-      <c r="F96" s="146"/>
-      <c r="G96" s="147"/>
-      <c r="H96" s="146"/>
-      <c r="I96" s="147"/>
-      <c r="J96" s="146"/>
-      <c r="K96" s="147"/>
-      <c r="L96" s="194"/>
-      <c r="M96" s="195"/>
-      <c r="N96" s="159"/>
-      <c r="O96" s="164"/>
+      <c r="D96" s="132"/>
+      <c r="E96" s="133"/>
+      <c r="F96" s="132"/>
+      <c r="G96" s="133"/>
+      <c r="H96" s="132"/>
+      <c r="I96" s="133"/>
+      <c r="J96" s="132"/>
+      <c r="K96" s="133"/>
+      <c r="L96" s="138"/>
+      <c r="M96" s="139"/>
+      <c r="N96" s="144"/>
+      <c r="O96" s="145"/>
       <c r="P96" s="12"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="43"/>
       <c r="C97" s="39"/>
-      <c r="D97" s="146"/>
-      <c r="E97" s="147"/>
-      <c r="F97" s="146"/>
-      <c r="G97" s="147"/>
-      <c r="H97" s="146"/>
-      <c r="I97" s="147"/>
-      <c r="J97" s="146"/>
-      <c r="K97" s="147"/>
-      <c r="L97" s="194"/>
-      <c r="M97" s="195"/>
-      <c r="N97" s="159"/>
-      <c r="O97" s="164"/>
+      <c r="D97" s="132"/>
+      <c r="E97" s="133"/>
+      <c r="F97" s="132"/>
+      <c r="G97" s="133"/>
+      <c r="H97" s="132"/>
+      <c r="I97" s="133"/>
+      <c r="J97" s="132"/>
+      <c r="K97" s="133"/>
+      <c r="L97" s="138"/>
+      <c r="M97" s="139"/>
+      <c r="N97" s="144"/>
+      <c r="O97" s="145"/>
       <c r="P97" s="12"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="41"/>
       <c r="C98" s="33"/>
-      <c r="D98" s="148"/>
-      <c r="E98" s="149"/>
-      <c r="F98" s="148"/>
-      <c r="G98" s="149"/>
-      <c r="H98" s="148"/>
-      <c r="I98" s="149"/>
-      <c r="J98" s="148"/>
-      <c r="K98" s="149"/>
-      <c r="L98" s="196"/>
-      <c r="M98" s="197"/>
-      <c r="N98" s="161"/>
-      <c r="O98" s="165"/>
+      <c r="D98" s="134"/>
+      <c r="E98" s="135"/>
+      <c r="F98" s="134"/>
+      <c r="G98" s="135"/>
+      <c r="H98" s="134"/>
+      <c r="I98" s="135"/>
+      <c r="J98" s="134"/>
+      <c r="K98" s="135"/>
+      <c r="L98" s="140"/>
+      <c r="M98" s="141"/>
+      <c r="N98" s="146"/>
+      <c r="O98" s="147"/>
       <c r="P98" s="12"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -8349,12 +8365,12 @@
       <c r="E99" s="9"/>
       <c r="F99" s="8"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="130" t="s">
+      <c r="H99" s="205" t="s">
         <v>722</v>
       </c>
-      <c r="I99" s="131"/>
-      <c r="J99" s="131"/>
-      <c r="K99" s="132"/>
+      <c r="I99" s="206"/>
+      <c r="J99" s="206"/>
+      <c r="K99" s="207"/>
       <c r="L99" s="10"/>
       <c r="M99" s="11"/>
       <c r="N99" s="7"/>
@@ -8363,146 +8379,146 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
-      <c r="B100" s="199">
+      <c r="B100" s="148">
         <v>27</v>
       </c>
-      <c r="C100" s="170"/>
-      <c r="D100" s="170">
+      <c r="C100" s="149"/>
+      <c r="D100" s="149">
         <v>28</v>
       </c>
-      <c r="E100" s="170"/>
-      <c r="F100" s="170">
+      <c r="E100" s="149"/>
+      <c r="F100" s="149">
         <v>29</v>
       </c>
-      <c r="G100" s="170"/>
-      <c r="H100" s="168">
+      <c r="G100" s="149"/>
+      <c r="H100" s="164">
         <v>30</v>
       </c>
-      <c r="I100" s="168"/>
-      <c r="J100" s="170">
+      <c r="I100" s="164"/>
+      <c r="J100" s="149">
         <v>31</v>
       </c>
-      <c r="K100" s="170"/>
+      <c r="K100" s="149"/>
       <c r="O100" s="16"/>
       <c r="P100" s="12"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
-      <c r="B101" s="187"/>
-      <c r="C101" s="188"/>
-      <c r="D101" s="191"/>
-      <c r="E101" s="188"/>
-      <c r="F101" s="191"/>
-      <c r="G101" s="188"/>
-      <c r="H101" s="191" t="s">
+      <c r="B101" s="165"/>
+      <c r="C101" s="131"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="131"/>
+      <c r="F101" s="130"/>
+      <c r="G101" s="131"/>
+      <c r="H101" s="130" t="s">
         <v>395</v>
       </c>
-      <c r="I101" s="188"/>
-      <c r="J101" s="191"/>
-      <c r="K101" s="188"/>
-      <c r="L101" s="192"/>
-      <c r="M101" s="193"/>
-      <c r="N101" s="157"/>
-      <c r="O101" s="163"/>
+      <c r="I101" s="131"/>
+      <c r="J101" s="130"/>
+      <c r="K101" s="131"/>
+      <c r="L101" s="136"/>
+      <c r="M101" s="137"/>
+      <c r="N101" s="142"/>
+      <c r="O101" s="143"/>
       <c r="P101" s="12"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
-      <c r="B102" s="189"/>
-      <c r="C102" s="147"/>
-      <c r="D102" s="146"/>
-      <c r="E102" s="147"/>
-      <c r="F102" s="146"/>
-      <c r="G102" s="147"/>
-      <c r="H102" s="146"/>
-      <c r="I102" s="147"/>
-      <c r="J102" s="146"/>
-      <c r="K102" s="147"/>
-      <c r="L102" s="194"/>
-      <c r="M102" s="195"/>
-      <c r="N102" s="159"/>
-      <c r="O102" s="164"/>
+      <c r="B102" s="166"/>
+      <c r="C102" s="133"/>
+      <c r="D102" s="132"/>
+      <c r="E102" s="133"/>
+      <c r="F102" s="132"/>
+      <c r="G102" s="133"/>
+      <c r="H102" s="132"/>
+      <c r="I102" s="133"/>
+      <c r="J102" s="132"/>
+      <c r="K102" s="133"/>
+      <c r="L102" s="138"/>
+      <c r="M102" s="139"/>
+      <c r="N102" s="144"/>
+      <c r="O102" s="145"/>
       <c r="P102" s="12"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
-      <c r="B103" s="189"/>
-      <c r="C103" s="147"/>
-      <c r="D103" s="146"/>
-      <c r="E103" s="147"/>
-      <c r="F103" s="146"/>
-      <c r="G103" s="147"/>
-      <c r="H103" s="146"/>
-      <c r="I103" s="147"/>
-      <c r="J103" s="146"/>
-      <c r="K103" s="147"/>
-      <c r="L103" s="194"/>
-      <c r="M103" s="195"/>
-      <c r="N103" s="159"/>
-      <c r="O103" s="164"/>
+      <c r="B103" s="166"/>
+      <c r="C103" s="133"/>
+      <c r="D103" s="132"/>
+      <c r="E103" s="133"/>
+      <c r="F103" s="132"/>
+      <c r="G103" s="133"/>
+      <c r="H103" s="132"/>
+      <c r="I103" s="133"/>
+      <c r="J103" s="132"/>
+      <c r="K103" s="133"/>
+      <c r="L103" s="138"/>
+      <c r="M103" s="139"/>
+      <c r="N103" s="144"/>
+      <c r="O103" s="145"/>
       <c r="P103" s="12"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
-      <c r="B104" s="189"/>
-      <c r="C104" s="147"/>
-      <c r="D104" s="146"/>
-      <c r="E104" s="147"/>
-      <c r="F104" s="146"/>
-      <c r="G104" s="147"/>
-      <c r="H104" s="146"/>
-      <c r="I104" s="147"/>
-      <c r="J104" s="146"/>
-      <c r="K104" s="147"/>
-      <c r="L104" s="194"/>
-      <c r="M104" s="195"/>
-      <c r="N104" s="159"/>
-      <c r="O104" s="164"/>
+      <c r="B104" s="166"/>
+      <c r="C104" s="133"/>
+      <c r="D104" s="132"/>
+      <c r="E104" s="133"/>
+      <c r="F104" s="132"/>
+      <c r="G104" s="133"/>
+      <c r="H104" s="132"/>
+      <c r="I104" s="133"/>
+      <c r="J104" s="132"/>
+      <c r="K104" s="133"/>
+      <c r="L104" s="138"/>
+      <c r="M104" s="139"/>
+      <c r="N104" s="144"/>
+      <c r="O104" s="145"/>
       <c r="P104" s="12"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
-      <c r="B105" s="189"/>
-      <c r="C105" s="147"/>
-      <c r="D105" s="146"/>
-      <c r="E105" s="147"/>
-      <c r="F105" s="146"/>
-      <c r="G105" s="147"/>
-      <c r="H105" s="146"/>
-      <c r="I105" s="147"/>
-      <c r="J105" s="146"/>
-      <c r="K105" s="147"/>
-      <c r="L105" s="194"/>
-      <c r="M105" s="195"/>
-      <c r="N105" s="159"/>
-      <c r="O105" s="164"/>
+      <c r="B105" s="166"/>
+      <c r="C105" s="133"/>
+      <c r="D105" s="132"/>
+      <c r="E105" s="133"/>
+      <c r="F105" s="132"/>
+      <c r="G105" s="133"/>
+      <c r="H105" s="132"/>
+      <c r="I105" s="133"/>
+      <c r="J105" s="132"/>
+      <c r="K105" s="133"/>
+      <c r="L105" s="138"/>
+      <c r="M105" s="139"/>
+      <c r="N105" s="144"/>
+      <c r="O105" s="145"/>
       <c r="P105" s="12"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
-      <c r="B106" s="190"/>
-      <c r="C106" s="149"/>
-      <c r="D106" s="148"/>
-      <c r="E106" s="149"/>
-      <c r="F106" s="148"/>
-      <c r="G106" s="149"/>
-      <c r="H106" s="148"/>
-      <c r="I106" s="149"/>
-      <c r="J106" s="148"/>
-      <c r="K106" s="149"/>
-      <c r="L106" s="196"/>
-      <c r="M106" s="197"/>
-      <c r="N106" s="161"/>
-      <c r="O106" s="165"/>
+      <c r="B106" s="167"/>
+      <c r="C106" s="135"/>
+      <c r="D106" s="134"/>
+      <c r="E106" s="135"/>
+      <c r="F106" s="134"/>
+      <c r="G106" s="135"/>
+      <c r="H106" s="134"/>
+      <c r="I106" s="135"/>
+      <c r="J106" s="134"/>
+      <c r="K106" s="135"/>
+      <c r="L106" s="140"/>
+      <c r="M106" s="141"/>
+      <c r="N106" s="146"/>
+      <c r="O106" s="147"/>
       <c r="P106" s="12"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="15"/>
-      <c r="H107" s="228" t="s">
+      <c r="H107" s="162" t="s">
         <v>396</v>
       </c>
-      <c r="I107" s="229"/>
+      <c r="I107" s="163"/>
       <c r="O107" s="16"/>
       <c r="P107" s="12"/>
     </row>
@@ -8527,22 +8543,22 @@
     <row r="109" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
-      <c r="B110" s="182" t="s">
+      <c r="B110" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="183"/>
-      <c r="D110" s="183"/>
-      <c r="E110" s="183"/>
-      <c r="F110" s="183"/>
-      <c r="G110" s="183"/>
-      <c r="H110" s="183"/>
-      <c r="I110" s="183"/>
-      <c r="J110" s="183"/>
-      <c r="K110" s="183"/>
-      <c r="L110" s="183"/>
-      <c r="M110" s="183"/>
-      <c r="N110" s="183"/>
-      <c r="O110" s="184"/>
+      <c r="C110" s="157"/>
+      <c r="D110" s="157"/>
+      <c r="E110" s="157"/>
+      <c r="F110" s="157"/>
+      <c r="G110" s="157"/>
+      <c r="H110" s="157"/>
+      <c r="I110" s="157"/>
+      <c r="J110" s="157"/>
+      <c r="K110" s="157"/>
+      <c r="L110" s="157"/>
+      <c r="M110" s="157"/>
+      <c r="N110" s="157"/>
+      <c r="O110" s="158"/>
       <c r="P110" s="12"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -8553,164 +8569,164 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
-      <c r="B112" s="185" t="s">
+      <c r="B112" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="C112" s="186"/>
-      <c r="D112" s="186" t="s">
+      <c r="C112" s="160"/>
+      <c r="D112" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="E112" s="186"/>
-      <c r="F112" s="186" t="s">
+      <c r="E112" s="160"/>
+      <c r="F112" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="G112" s="186"/>
-      <c r="H112" s="186" t="s">
+      <c r="G112" s="160"/>
+      <c r="H112" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="I112" s="186"/>
-      <c r="J112" s="186" t="s">
+      <c r="I112" s="160"/>
+      <c r="J112" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="K112" s="186"/>
-      <c r="L112" s="186" t="s">
+      <c r="K112" s="160"/>
+      <c r="L112" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="M112" s="186"/>
-      <c r="N112" s="186" t="s">
+      <c r="M112" s="160"/>
+      <c r="N112" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="O112" s="215"/>
+      <c r="O112" s="161"/>
       <c r="P112" s="12"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
-      <c r="B113" s="199"/>
-      <c r="C113" s="170"/>
-      <c r="D113" s="170"/>
-      <c r="E113" s="170"/>
-      <c r="F113" s="170"/>
-      <c r="G113" s="170"/>
-      <c r="H113" s="170"/>
-      <c r="I113" s="170"/>
-      <c r="J113" s="170"/>
-      <c r="K113" s="170"/>
-      <c r="L113" s="170">
+      <c r="B113" s="148"/>
+      <c r="C113" s="149"/>
+      <c r="D113" s="149"/>
+      <c r="E113" s="149"/>
+      <c r="F113" s="149"/>
+      <c r="G113" s="149"/>
+      <c r="H113" s="149"/>
+      <c r="I113" s="149"/>
+      <c r="J113" s="149"/>
+      <c r="K113" s="149"/>
+      <c r="L113" s="149">
         <v>1</v>
       </c>
-      <c r="M113" s="170"/>
-      <c r="N113" s="170">
+      <c r="M113" s="149"/>
+      <c r="N113" s="149">
         <v>2</v>
       </c>
-      <c r="O113" s="171"/>
+      <c r="O113" s="150"/>
       <c r="P113" s="12"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="40"/>
       <c r="C114" s="32"/>
-      <c r="D114" s="191"/>
-      <c r="E114" s="188"/>
-      <c r="F114" s="191"/>
-      <c r="G114" s="188"/>
-      <c r="H114" s="191"/>
-      <c r="I114" s="188"/>
-      <c r="J114" s="191"/>
-      <c r="K114" s="188"/>
-      <c r="L114" s="192"/>
-      <c r="M114" s="193"/>
-      <c r="N114" s="157"/>
-      <c r="O114" s="163"/>
+      <c r="D114" s="130"/>
+      <c r="E114" s="131"/>
+      <c r="F114" s="130"/>
+      <c r="G114" s="131"/>
+      <c r="H114" s="130"/>
+      <c r="I114" s="131"/>
+      <c r="J114" s="130"/>
+      <c r="K114" s="131"/>
+      <c r="L114" s="136"/>
+      <c r="M114" s="137"/>
+      <c r="N114" s="142"/>
+      <c r="O114" s="143"/>
       <c r="P114" s="12"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="41"/>
       <c r="C115" s="33"/>
-      <c r="D115" s="146"/>
-      <c r="E115" s="147"/>
-      <c r="F115" s="146"/>
-      <c r="G115" s="147"/>
-      <c r="H115" s="146"/>
-      <c r="I115" s="147"/>
-      <c r="J115" s="146"/>
-      <c r="K115" s="147"/>
-      <c r="L115" s="194"/>
-      <c r="M115" s="195"/>
-      <c r="N115" s="159"/>
-      <c r="O115" s="164"/>
+      <c r="D115" s="132"/>
+      <c r="E115" s="133"/>
+      <c r="F115" s="132"/>
+      <c r="G115" s="133"/>
+      <c r="H115" s="132"/>
+      <c r="I115" s="133"/>
+      <c r="J115" s="132"/>
+      <c r="K115" s="133"/>
+      <c r="L115" s="138"/>
+      <c r="M115" s="139"/>
+      <c r="N115" s="144"/>
+      <c r="O115" s="145"/>
       <c r="P115" s="12"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="41"/>
       <c r="C116" s="33"/>
-      <c r="D116" s="146"/>
-      <c r="E116" s="147"/>
-      <c r="F116" s="146"/>
-      <c r="G116" s="147"/>
-      <c r="H116" s="146"/>
-      <c r="I116" s="147"/>
-      <c r="J116" s="146"/>
-      <c r="K116" s="147"/>
-      <c r="L116" s="194"/>
-      <c r="M116" s="195"/>
-      <c r="N116" s="159"/>
-      <c r="O116" s="164"/>
+      <c r="D116" s="132"/>
+      <c r="E116" s="133"/>
+      <c r="F116" s="132"/>
+      <c r="G116" s="133"/>
+      <c r="H116" s="132"/>
+      <c r="I116" s="133"/>
+      <c r="J116" s="132"/>
+      <c r="K116" s="133"/>
+      <c r="L116" s="138"/>
+      <c r="M116" s="139"/>
+      <c r="N116" s="144"/>
+      <c r="O116" s="145"/>
       <c r="P116" s="12"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="41"/>
       <c r="C117" s="33"/>
-      <c r="D117" s="146"/>
-      <c r="E117" s="147"/>
-      <c r="F117" s="146"/>
-      <c r="G117" s="147"/>
-      <c r="H117" s="146"/>
-      <c r="I117" s="147"/>
-      <c r="J117" s="146"/>
-      <c r="K117" s="147"/>
-      <c r="L117" s="194"/>
-      <c r="M117" s="195"/>
-      <c r="N117" s="159"/>
-      <c r="O117" s="164"/>
+      <c r="D117" s="132"/>
+      <c r="E117" s="133"/>
+      <c r="F117" s="132"/>
+      <c r="G117" s="133"/>
+      <c r="H117" s="132"/>
+      <c r="I117" s="133"/>
+      <c r="J117" s="132"/>
+      <c r="K117" s="133"/>
+      <c r="L117" s="138"/>
+      <c r="M117" s="139"/>
+      <c r="N117" s="144"/>
+      <c r="O117" s="145"/>
       <c r="P117" s="12"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="41"/>
       <c r="C118" s="33"/>
-      <c r="D118" s="146"/>
-      <c r="E118" s="147"/>
-      <c r="F118" s="146"/>
-      <c r="G118" s="147"/>
-      <c r="H118" s="146"/>
-      <c r="I118" s="147"/>
-      <c r="J118" s="146"/>
-      <c r="K118" s="147"/>
-      <c r="L118" s="194"/>
-      <c r="M118" s="195"/>
-      <c r="N118" s="159"/>
-      <c r="O118" s="164"/>
+      <c r="D118" s="132"/>
+      <c r="E118" s="133"/>
+      <c r="F118" s="132"/>
+      <c r="G118" s="133"/>
+      <c r="H118" s="132"/>
+      <c r="I118" s="133"/>
+      <c r="J118" s="132"/>
+      <c r="K118" s="133"/>
+      <c r="L118" s="138"/>
+      <c r="M118" s="139"/>
+      <c r="N118" s="144"/>
+      <c r="O118" s="145"/>
       <c r="P118" s="12"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="41"/>
       <c r="C119" s="33"/>
-      <c r="D119" s="148"/>
-      <c r="E119" s="149"/>
-      <c r="F119" s="148"/>
-      <c r="G119" s="149"/>
-      <c r="H119" s="148"/>
-      <c r="I119" s="149"/>
-      <c r="J119" s="148"/>
-      <c r="K119" s="149"/>
-      <c r="L119" s="196"/>
-      <c r="M119" s="197"/>
-      <c r="N119" s="161"/>
-      <c r="O119" s="165"/>
+      <c r="D119" s="134"/>
+      <c r="E119" s="135"/>
+      <c r="F119" s="134"/>
+      <c r="G119" s="135"/>
+      <c r="H119" s="134"/>
+      <c r="I119" s="135"/>
+      <c r="J119" s="134"/>
+      <c r="K119" s="135"/>
+      <c r="L119" s="140"/>
+      <c r="M119" s="141"/>
+      <c r="N119" s="146"/>
+      <c r="O119" s="147"/>
       <c r="P119" s="12"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -8733,136 +8749,136 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
-      <c r="B121" s="199">
+      <c r="B121" s="148">
         <v>3</v>
       </c>
-      <c r="C121" s="170"/>
-      <c r="D121" s="170">
+      <c r="C121" s="149"/>
+      <c r="D121" s="149">
         <v>4</v>
       </c>
-      <c r="E121" s="170"/>
-      <c r="F121" s="170">
+      <c r="E121" s="149"/>
+      <c r="F121" s="149">
         <v>5</v>
       </c>
-      <c r="G121" s="170"/>
-      <c r="H121" s="170"/>
-      <c r="I121" s="170"/>
-      <c r="J121" s="170"/>
-      <c r="K121" s="170"/>
-      <c r="L121" s="170"/>
-      <c r="M121" s="170"/>
-      <c r="N121" s="170"/>
-      <c r="O121" s="171"/>
+      <c r="G121" s="149"/>
+      <c r="H121" s="149"/>
+      <c r="I121" s="149"/>
+      <c r="J121" s="149"/>
+      <c r="K121" s="149"/>
+      <c r="L121" s="149"/>
+      <c r="M121" s="149"/>
+      <c r="N121" s="149"/>
+      <c r="O121" s="150"/>
       <c r="P121" s="12"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="42"/>
       <c r="C122" s="35"/>
-      <c r="D122" s="191"/>
-      <c r="E122" s="188"/>
-      <c r="F122" s="191" t="s">
+      <c r="D122" s="130"/>
+      <c r="E122" s="131"/>
+      <c r="F122" s="130" t="s">
         <v>722</v>
       </c>
-      <c r="G122" s="188"/>
-      <c r="H122" s="191"/>
-      <c r="I122" s="188"/>
-      <c r="J122" s="191"/>
-      <c r="K122" s="188"/>
-      <c r="L122" s="192"/>
-      <c r="M122" s="193"/>
-      <c r="N122" s="157"/>
-      <c r="O122" s="163"/>
+      <c r="G122" s="131"/>
+      <c r="H122" s="130"/>
+      <c r="I122" s="131"/>
+      <c r="J122" s="130"/>
+      <c r="K122" s="131"/>
+      <c r="L122" s="136"/>
+      <c r="M122" s="137"/>
+      <c r="N122" s="142"/>
+      <c r="O122" s="143"/>
       <c r="P122" s="12"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="42"/>
       <c r="C123" s="35"/>
-      <c r="D123" s="146"/>
-      <c r="E123" s="147"/>
-      <c r="F123" s="146"/>
-      <c r="G123" s="147"/>
-      <c r="H123" s="146"/>
-      <c r="I123" s="147"/>
-      <c r="J123" s="146"/>
-      <c r="K123" s="147"/>
-      <c r="L123" s="194"/>
-      <c r="M123" s="195"/>
-      <c r="N123" s="159"/>
-      <c r="O123" s="164"/>
+      <c r="D123" s="132"/>
+      <c r="E123" s="133"/>
+      <c r="F123" s="132"/>
+      <c r="G123" s="133"/>
+      <c r="H123" s="132"/>
+      <c r="I123" s="133"/>
+      <c r="J123" s="132"/>
+      <c r="K123" s="133"/>
+      <c r="L123" s="138"/>
+      <c r="M123" s="139"/>
+      <c r="N123" s="144"/>
+      <c r="O123" s="145"/>
       <c r="P123" s="12"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="42"/>
       <c r="C124" s="35"/>
-      <c r="D124" s="146"/>
-      <c r="E124" s="147"/>
-      <c r="F124" s="146"/>
-      <c r="G124" s="147"/>
-      <c r="H124" s="146"/>
-      <c r="I124" s="147"/>
-      <c r="J124" s="146"/>
-      <c r="K124" s="147"/>
-      <c r="L124" s="194"/>
-      <c r="M124" s="195"/>
-      <c r="N124" s="159"/>
-      <c r="O124" s="164"/>
+      <c r="D124" s="132"/>
+      <c r="E124" s="133"/>
+      <c r="F124" s="132"/>
+      <c r="G124" s="133"/>
+      <c r="H124" s="132"/>
+      <c r="I124" s="133"/>
+      <c r="J124" s="132"/>
+      <c r="K124" s="133"/>
+      <c r="L124" s="138"/>
+      <c r="M124" s="139"/>
+      <c r="N124" s="144"/>
+      <c r="O124" s="145"/>
       <c r="P124" s="12"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="42"/>
       <c r="C125" s="35"/>
-      <c r="D125" s="146"/>
-      <c r="E125" s="147"/>
-      <c r="F125" s="146"/>
-      <c r="G125" s="147"/>
-      <c r="H125" s="146"/>
-      <c r="I125" s="147"/>
-      <c r="J125" s="146"/>
-      <c r="K125" s="147"/>
-      <c r="L125" s="194"/>
-      <c r="M125" s="195"/>
-      <c r="N125" s="159"/>
-      <c r="O125" s="164"/>
+      <c r="D125" s="132"/>
+      <c r="E125" s="133"/>
+      <c r="F125" s="132"/>
+      <c r="G125" s="133"/>
+      <c r="H125" s="132"/>
+      <c r="I125" s="133"/>
+      <c r="J125" s="132"/>
+      <c r="K125" s="133"/>
+      <c r="L125" s="138"/>
+      <c r="M125" s="139"/>
+      <c r="N125" s="144"/>
+      <c r="O125" s="145"/>
       <c r="P125" s="12"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="43"/>
       <c r="C126" s="36"/>
-      <c r="D126" s="146"/>
-      <c r="E126" s="147"/>
-      <c r="F126" s="146"/>
-      <c r="G126" s="147"/>
-      <c r="H126" s="146"/>
-      <c r="I126" s="147"/>
-      <c r="J126" s="146"/>
-      <c r="K126" s="147"/>
-      <c r="L126" s="194"/>
-      <c r="M126" s="195"/>
-      <c r="N126" s="159"/>
-      <c r="O126" s="164"/>
+      <c r="D126" s="132"/>
+      <c r="E126" s="133"/>
+      <c r="F126" s="132"/>
+      <c r="G126" s="133"/>
+      <c r="H126" s="132"/>
+      <c r="I126" s="133"/>
+      <c r="J126" s="132"/>
+      <c r="K126" s="133"/>
+      <c r="L126" s="138"/>
+      <c r="M126" s="139"/>
+      <c r="N126" s="144"/>
+      <c r="O126" s="145"/>
       <c r="P126" s="12"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="41"/>
       <c r="C127" s="33"/>
-      <c r="D127" s="148"/>
-      <c r="E127" s="149"/>
-      <c r="F127" s="148"/>
-      <c r="G127" s="149"/>
-      <c r="H127" s="148"/>
-      <c r="I127" s="149"/>
-      <c r="J127" s="148"/>
-      <c r="K127" s="149"/>
-      <c r="L127" s="196"/>
-      <c r="M127" s="197"/>
-      <c r="N127" s="161"/>
-      <c r="O127" s="165"/>
+      <c r="D127" s="134"/>
+      <c r="E127" s="135"/>
+      <c r="F127" s="134"/>
+      <c r="G127" s="135"/>
+      <c r="H127" s="134"/>
+      <c r="I127" s="135"/>
+      <c r="J127" s="134"/>
+      <c r="K127" s="135"/>
+      <c r="L127" s="140"/>
+      <c r="M127" s="141"/>
+      <c r="N127" s="146"/>
+      <c r="O127" s="147"/>
       <c r="P127" s="12"/>
     </row>
     <row r="128" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8871,10 +8887,10 @@
       <c r="C128" s="51"/>
       <c r="D128" s="129"/>
       <c r="E128" s="99"/>
-      <c r="F128" s="133" t="s">
+      <c r="F128" s="208" t="s">
         <v>723</v>
       </c>
-      <c r="G128" s="134"/>
+      <c r="G128" s="209"/>
       <c r="H128" s="52"/>
       <c r="I128" s="53"/>
       <c r="J128" s="52"/>
@@ -8903,20 +8919,200 @@
     </row>
   </sheetData>
   <mergeCells count="232">
-    <mergeCell ref="D122:E127"/>
-    <mergeCell ref="F122:G127"/>
-    <mergeCell ref="H122:I127"/>
-    <mergeCell ref="J122:K127"/>
-    <mergeCell ref="L122:M127"/>
-    <mergeCell ref="N122:O127"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="D114:E119"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="Q13:W16"/>
+    <mergeCell ref="Q79:Y82"/>
+    <mergeCell ref="J70:K74"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="D55:O55"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="L57:M62"/>
+    <mergeCell ref="N57:O62"/>
+    <mergeCell ref="L49:M54"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N41:O46"/>
+    <mergeCell ref="N49:O54"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O30"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="B65:O65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="B57:C62"/>
+    <mergeCell ref="D57:E62"/>
+    <mergeCell ref="F57:G62"/>
+    <mergeCell ref="H57:I62"/>
+    <mergeCell ref="J57:K62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L33:M38"/>
+    <mergeCell ref="N33:O38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D33:K38"/>
+    <mergeCell ref="J49:K54"/>
+    <mergeCell ref="B41:C46"/>
+    <mergeCell ref="D41:E46"/>
+    <mergeCell ref="F41:G46"/>
+    <mergeCell ref="H41:I46"/>
+    <mergeCell ref="J41:K46"/>
+    <mergeCell ref="L41:M46"/>
+    <mergeCell ref="D49:E54"/>
+    <mergeCell ref="F49:G54"/>
+    <mergeCell ref="H49:I54"/>
+    <mergeCell ref="B49:C54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L25:M26"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D25:K30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B33:C38"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F14:G18"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B6:C11"/>
+    <mergeCell ref="D6:E11"/>
+    <mergeCell ref="F6:G11"/>
+    <mergeCell ref="H6:I11"/>
+    <mergeCell ref="J6:K11"/>
+    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="L6:M11"/>
+    <mergeCell ref="N6:O11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:C18"/>
+    <mergeCell ref="D14:E18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="J14:K16"/>
+    <mergeCell ref="L14:O18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B25:C30"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="D69:E74"/>
+    <mergeCell ref="F69:G74"/>
+    <mergeCell ref="H69:I74"/>
+    <mergeCell ref="L69:M74"/>
+    <mergeCell ref="N69:O74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="D77:E82"/>
+    <mergeCell ref="F77:G82"/>
+    <mergeCell ref="H77:I82"/>
+    <mergeCell ref="J77:K82"/>
+    <mergeCell ref="L77:M82"/>
+    <mergeCell ref="N77:O82"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="D85:E90"/>
+    <mergeCell ref="F85:G90"/>
+    <mergeCell ref="H85:I90"/>
+    <mergeCell ref="J85:K90"/>
+    <mergeCell ref="L85:M90"/>
+    <mergeCell ref="N85:O90"/>
+    <mergeCell ref="J101:K106"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="D93:E98"/>
+    <mergeCell ref="F93:G98"/>
+    <mergeCell ref="H93:I98"/>
+    <mergeCell ref="J93:K98"/>
+    <mergeCell ref="L93:M98"/>
+    <mergeCell ref="N93:O98"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="B101:C106"/>
+    <mergeCell ref="D101:E106"/>
+    <mergeCell ref="F101:G106"/>
+    <mergeCell ref="H101:I106"/>
     <mergeCell ref="P53:U57"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="B121:C121"/>
@@ -8941,200 +9137,20 @@
     <mergeCell ref="J112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B101:C106"/>
-    <mergeCell ref="D101:E106"/>
-    <mergeCell ref="F101:G106"/>
-    <mergeCell ref="H101:I106"/>
-    <mergeCell ref="J101:K106"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="D93:E98"/>
-    <mergeCell ref="F93:G98"/>
-    <mergeCell ref="H93:I98"/>
-    <mergeCell ref="J93:K98"/>
-    <mergeCell ref="L93:M98"/>
-    <mergeCell ref="N93:O98"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="D85:E90"/>
-    <mergeCell ref="F85:G90"/>
-    <mergeCell ref="H85:I90"/>
-    <mergeCell ref="J85:K90"/>
-    <mergeCell ref="L85:M90"/>
-    <mergeCell ref="N85:O90"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="D77:E82"/>
-    <mergeCell ref="F77:G82"/>
-    <mergeCell ref="H77:I82"/>
-    <mergeCell ref="J77:K82"/>
-    <mergeCell ref="L77:M82"/>
-    <mergeCell ref="N77:O82"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="D69:E74"/>
-    <mergeCell ref="F69:G74"/>
-    <mergeCell ref="H69:I74"/>
-    <mergeCell ref="L69:M74"/>
-    <mergeCell ref="N69:O74"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L6:M11"/>
-    <mergeCell ref="N6:O11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:C18"/>
-    <mergeCell ref="D14:E18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="J14:K16"/>
-    <mergeCell ref="L14:O18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="F14:G18"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B6:C11"/>
-    <mergeCell ref="D6:E11"/>
-    <mergeCell ref="F6:G11"/>
-    <mergeCell ref="H6:I11"/>
-    <mergeCell ref="J6:K11"/>
-    <mergeCell ref="H14:I16"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B25:C30"/>
-    <mergeCell ref="L25:M26"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D25:K30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B33:C38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L33:M38"/>
-    <mergeCell ref="N33:O38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D33:K38"/>
-    <mergeCell ref="J49:K54"/>
-    <mergeCell ref="B41:C46"/>
-    <mergeCell ref="D41:E46"/>
-    <mergeCell ref="F41:G46"/>
-    <mergeCell ref="H41:I46"/>
-    <mergeCell ref="J41:K46"/>
-    <mergeCell ref="L41:M46"/>
-    <mergeCell ref="D49:E54"/>
-    <mergeCell ref="F49:G54"/>
-    <mergeCell ref="H49:I54"/>
-    <mergeCell ref="B49:C54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="B57:C62"/>
-    <mergeCell ref="D57:E62"/>
-    <mergeCell ref="F57:G62"/>
-    <mergeCell ref="H57:I62"/>
-    <mergeCell ref="J57:K62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="Q13:W16"/>
-    <mergeCell ref="Q79:Y82"/>
-    <mergeCell ref="J70:K74"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="D55:O55"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="L57:M62"/>
-    <mergeCell ref="N57:O62"/>
-    <mergeCell ref="L49:M54"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N41:O46"/>
-    <mergeCell ref="N49:O54"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O30"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="B65:O65"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D122:E127"/>
+    <mergeCell ref="F122:G127"/>
+    <mergeCell ref="H122:I127"/>
+    <mergeCell ref="J122:K127"/>
+    <mergeCell ref="L122:M127"/>
+    <mergeCell ref="N122:O127"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="D114:E119"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12509,38 +12525,38 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="212" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="139"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="215"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="140"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="142"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="215"/>
     </row>
     <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="145"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="218"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="69"/>
@@ -12767,10 +12783,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13007,7 +13023,23 @@
         <v>725</v>
       </c>
       <c r="B30" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>726</v>
+      </c>
+      <c r="B31" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>729</v>
+      </c>
+      <c r="B32" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -16144,6 +16176,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H33:H34"/>
     <mergeCell ref="H101:H102"/>
     <mergeCell ref="H113:H114"/>
     <mergeCell ref="H123:H124"/>
@@ -16153,12 +16191,6 @@
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="H73:H74"/>
     <mergeCell ref="H84:H85"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WAS계획서 및 일지.xlsx
+++ b/WAS계획서 및 일지.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="735">
   <si>
     <t>2019년 8월</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -2887,6 +2887,22 @@
   </si>
   <si>
     <t>중간발표 (발표자 김시성)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 29일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드, 메인화면, 그래프 수정, DATA수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 31일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 예비발표</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4502,6 +4518,15 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4608,15 +4633,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6359,7 +6375,7 @@
       <c r="L6" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="171"/>
+      <c r="M6" s="174"/>
       <c r="N6" s="142"/>
       <c r="O6" s="143"/>
       <c r="P6" s="12"/>
@@ -6377,7 +6393,7 @@
       <c r="J7" s="138"/>
       <c r="K7" s="139"/>
       <c r="L7" s="144"/>
-      <c r="M7" s="172"/>
+      <c r="M7" s="175"/>
       <c r="N7" s="144"/>
       <c r="O7" s="145"/>
       <c r="P7" s="12"/>
@@ -6395,7 +6411,7 @@
       <c r="J8" s="138"/>
       <c r="K8" s="139"/>
       <c r="L8" s="144"/>
-      <c r="M8" s="172"/>
+      <c r="M8" s="175"/>
       <c r="N8" s="144"/>
       <c r="O8" s="145"/>
       <c r="P8" s="12"/>
@@ -6413,7 +6429,7 @@
       <c r="J9" s="138"/>
       <c r="K9" s="139"/>
       <c r="L9" s="144"/>
-      <c r="M9" s="172"/>
+      <c r="M9" s="175"/>
       <c r="N9" s="144"/>
       <c r="O9" s="145"/>
       <c r="P9" s="12"/>
@@ -6431,7 +6447,7 @@
       <c r="J10" s="138"/>
       <c r="K10" s="139"/>
       <c r="L10" s="144"/>
-      <c r="M10" s="172"/>
+      <c r="M10" s="175"/>
       <c r="N10" s="144"/>
       <c r="O10" s="145"/>
       <c r="P10" s="12"/>
@@ -6449,7 +6465,7 @@
       <c r="J11" s="140"/>
       <c r="K11" s="141"/>
       <c r="L11" s="146"/>
-      <c r="M11" s="173"/>
+      <c r="M11" s="176"/>
       <c r="N11" s="146"/>
       <c r="O11" s="147"/>
       <c r="P11" s="12"/>
@@ -6464,12 +6480,12 @@
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="174" t="s">
+      <c r="J12" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="176"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="179"/>
       <c r="N12" s="5"/>
       <c r="O12" s="18"/>
       <c r="P12" s="102"/>
@@ -6483,34 +6499,34 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="177">
+      <c r="B13" s="180">
         <v>25</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178">
+      <c r="C13" s="181"/>
+      <c r="D13" s="181">
         <v>26</v>
       </c>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178">
+      <c r="E13" s="181"/>
+      <c r="F13" s="181">
         <v>27</v>
       </c>
-      <c r="G13" s="178"/>
-      <c r="H13" s="179">
+      <c r="G13" s="181"/>
+      <c r="H13" s="182">
         <v>28</v>
       </c>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179">
+      <c r="I13" s="182"/>
+      <c r="J13" s="182">
         <v>29</v>
       </c>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179">
+      <c r="K13" s="182"/>
+      <c r="L13" s="182">
         <v>30</v>
       </c>
-      <c r="M13" s="179"/>
-      <c r="N13" s="179">
+      <c r="M13" s="182"/>
+      <c r="N13" s="182">
         <v>31</v>
       </c>
-      <c r="O13" s="189"/>
+      <c r="O13" s="192"/>
       <c r="P13" s="118"/>
       <c r="Q13" s="212" t="s">
         <v>632</v>
@@ -6527,28 +6543,28 @@
       <c r="A14" s="6"/>
       <c r="B14" s="165"/>
       <c r="C14" s="131"/>
-      <c r="D14" s="180" t="s">
+      <c r="D14" s="183" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="131"/>
-      <c r="F14" s="180" t="s">
+      <c r="F14" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="183"/>
-      <c r="H14" s="181" t="s">
+      <c r="G14" s="186"/>
+      <c r="H14" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181" t="s">
+      <c r="I14" s="184"/>
+      <c r="J14" s="184" t="s">
         <v>269</v>
       </c>
-      <c r="K14" s="181"/>
-      <c r="L14" s="183" t="s">
+      <c r="K14" s="184"/>
+      <c r="L14" s="186" t="s">
         <v>352</v>
       </c>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
+      <c r="M14" s="186"/>
+      <c r="N14" s="186"/>
+      <c r="O14" s="186"/>
       <c r="P14" s="118"/>
       <c r="Q14" s="151"/>
       <c r="R14" s="152"/>
@@ -6565,16 +6581,16 @@
       <c r="C15" s="133"/>
       <c r="D15" s="132"/>
       <c r="E15" s="133"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="184"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
       <c r="P15" s="118"/>
       <c r="Q15" s="151"/>
       <c r="R15" s="152"/>
@@ -6591,16 +6607,16 @@
       <c r="C16" s="133"/>
       <c r="D16" s="132"/>
       <c r="E16" s="133"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="184"/>
-      <c r="N16" s="184"/>
-      <c r="O16" s="184"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="185"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
       <c r="P16" s="118"/>
       <c r="Q16" s="216"/>
       <c r="R16" s="217"/>
@@ -6617,20 +6633,20 @@
       <c r="C17" s="133"/>
       <c r="D17" s="132"/>
       <c r="E17" s="133"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="182" t="s">
+      <c r="F17" s="191"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="182"/>
+      <c r="I17" s="185"/>
       <c r="J17" s="152" t="s">
         <v>353</v>
       </c>
       <c r="K17" s="152"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="185"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="188"/>
       <c r="P17" s="103"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
@@ -6646,18 +6662,18 @@
       <c r="C18" s="133"/>
       <c r="D18" s="132"/>
       <c r="E18" s="133"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="184"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="187"/>
       <c r="H18" s="155" t="s">
         <v>273</v>
       </c>
       <c r="I18" s="155"/>
       <c r="J18" s="154"/>
       <c r="K18" s="154"/>
-      <c r="L18" s="186"/>
-      <c r="M18" s="186"/>
-      <c r="N18" s="186"/>
-      <c r="O18" s="187"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="190"/>
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6795,18 +6811,18 @@
       <c r="D25" s="130" t="s">
         <v>351</v>
       </c>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="190"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="190"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="190" t="s">
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="193" t="s">
         <v>356</v>
       </c>
-      <c r="M25" s="190"/>
-      <c r="N25" s="183"/>
+      <c r="M25" s="193"/>
+      <c r="N25" s="186"/>
       <c r="O25" s="227"/>
       <c r="P25" s="12"/>
     </row>
@@ -6815,17 +6831,17 @@
       <c r="B26" s="166"/>
       <c r="C26" s="133"/>
       <c r="D26" s="132"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="191"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="191"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="191"/>
-      <c r="M26" s="191"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="185"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="188"/>
       <c r="P26" s="12"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -6833,19 +6849,19 @@
       <c r="B27" s="166"/>
       <c r="C27" s="133"/>
       <c r="D27" s="132"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="191"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="184" t="s">
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="187" t="s">
         <v>357</v>
       </c>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="185"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="188"/>
       <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -6853,17 +6869,17 @@
       <c r="B28" s="166"/>
       <c r="C28" s="133"/>
       <c r="D28" s="132"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="191"/>
-      <c r="K28" s="191"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="185"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="188"/>
       <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -6871,17 +6887,17 @@
       <c r="B29" s="166"/>
       <c r="C29" s="133"/>
       <c r="D29" s="132"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
       <c r="L29" s="84"/>
       <c r="M29" s="84"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="185"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="188"/>
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -6889,33 +6905,33 @@
       <c r="B30" s="167"/>
       <c r="C30" s="135"/>
       <c r="D30" s="134"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="194"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="197"/>
       <c r="L30" s="85"/>
       <c r="M30" s="85"/>
-      <c r="N30" s="186"/>
-      <c r="O30" s="187"/>
+      <c r="N30" s="189"/>
+      <c r="O30" s="190"/>
       <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="22"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="192" t="s">
+      <c r="D31" s="195" t="s">
         <v>355</v>
       </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="193"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="196"/>
       <c r="L31" s="86"/>
       <c r="M31" s="86"/>
       <c r="N31" s="86"/>
@@ -6961,17 +6977,17 @@
       <c r="D33" s="130" t="s">
         <v>373</v>
       </c>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="190"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="193"/>
       <c r="K33" s="131"/>
       <c r="L33" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="171"/>
+      <c r="M33" s="174"/>
       <c r="N33" s="142" t="s">
         <v>372</v>
       </c>
@@ -6983,15 +6999,15 @@
       <c r="B34" s="166"/>
       <c r="C34" s="133"/>
       <c r="D34" s="132"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="191"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="194"/>
       <c r="K34" s="133"/>
       <c r="L34" s="144"/>
-      <c r="M34" s="172"/>
+      <c r="M34" s="175"/>
       <c r="N34" s="144"/>
       <c r="O34" s="145"/>
       <c r="P34" s="12"/>
@@ -7001,15 +7017,15 @@
       <c r="B35" s="166"/>
       <c r="C35" s="133"/>
       <c r="D35" s="132"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="191"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
       <c r="K35" s="133"/>
       <c r="L35" s="144"/>
-      <c r="M35" s="172"/>
+      <c r="M35" s="175"/>
       <c r="N35" s="144"/>
       <c r="O35" s="145"/>
       <c r="P35" s="12"/>
@@ -7019,15 +7035,15 @@
       <c r="B36" s="166"/>
       <c r="C36" s="133"/>
       <c r="D36" s="132"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="191"/>
-      <c r="I36" s="191"/>
-      <c r="J36" s="191"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
       <c r="K36" s="133"/>
       <c r="L36" s="144"/>
-      <c r="M36" s="172"/>
+      <c r="M36" s="175"/>
       <c r="N36" s="144"/>
       <c r="O36" s="145"/>
       <c r="P36" s="12"/>
@@ -7037,15 +7053,15 @@
       <c r="B37" s="166"/>
       <c r="C37" s="133"/>
       <c r="D37" s="132"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="191"/>
-      <c r="H37" s="191"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="191"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
       <c r="K37" s="133"/>
       <c r="L37" s="144"/>
-      <c r="M37" s="172"/>
+      <c r="M37" s="175"/>
       <c r="N37" s="144"/>
       <c r="O37" s="145"/>
       <c r="P37" s="12"/>
@@ -7055,15 +7071,15 @@
       <c r="B38" s="167"/>
       <c r="C38" s="135"/>
       <c r="D38" s="134"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="194"/>
+      <c r="E38" s="197"/>
+      <c r="F38" s="197"/>
+      <c r="G38" s="197"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
       <c r="K38" s="135"/>
       <c r="L38" s="146"/>
-      <c r="M38" s="173"/>
+      <c r="M38" s="176"/>
       <c r="N38" s="146"/>
       <c r="O38" s="147"/>
       <c r="P38" s="12"/>
@@ -7072,28 +7088,28 @@
       <c r="A39" s="6"/>
       <c r="B39" s="22"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="197" t="s">
+      <c r="D39" s="200" t="s">
         <v>381</v>
       </c>
-      <c r="E39" s="198"/>
-      <c r="F39" s="198"/>
-      <c r="G39" s="198"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="198"/>
-      <c r="K39" s="198"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="201"/>
       <c r="L39" s="30"/>
       <c r="M39" s="31"/>
-      <c r="N39" s="195"/>
-      <c r="O39" s="196"/>
+      <c r="N39" s="198"/>
+      <c r="O39" s="199"/>
       <c r="P39" s="12"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
-      <c r="B40" s="169">
+      <c r="B40" s="172">
         <v>15</v>
       </c>
-      <c r="C40" s="170"/>
+      <c r="C40" s="173"/>
       <c r="D40" s="164">
         <v>16</v>
       </c>
@@ -7135,7 +7151,7 @@
       <c r="L41" s="142" t="s">
         <v>393</v>
       </c>
-      <c r="M41" s="171"/>
+      <c r="M41" s="174"/>
       <c r="N41" s="142"/>
       <c r="O41" s="143"/>
       <c r="P41" s="12"/>
@@ -7153,7 +7169,7 @@
       <c r="J42" s="138"/>
       <c r="K42" s="139"/>
       <c r="L42" s="144"/>
-      <c r="M42" s="172"/>
+      <c r="M42" s="175"/>
       <c r="N42" s="144"/>
       <c r="O42" s="145"/>
       <c r="P42" s="12"/>
@@ -7171,7 +7187,7 @@
       <c r="J43" s="138"/>
       <c r="K43" s="139"/>
       <c r="L43" s="144"/>
-      <c r="M43" s="172"/>
+      <c r="M43" s="175"/>
       <c r="N43" s="144"/>
       <c r="O43" s="145"/>
       <c r="P43" s="12"/>
@@ -7189,7 +7205,7 @@
       <c r="J44" s="138"/>
       <c r="K44" s="139"/>
       <c r="L44" s="144"/>
-      <c r="M44" s="172"/>
+      <c r="M44" s="175"/>
       <c r="N44" s="144"/>
       <c r="O44" s="145"/>
       <c r="P44" s="12"/>
@@ -7207,7 +7223,7 @@
       <c r="J45" s="138"/>
       <c r="K45" s="139"/>
       <c r="L45" s="144"/>
-      <c r="M45" s="172"/>
+      <c r="M45" s="175"/>
       <c r="N45" s="144"/>
       <c r="O45" s="145"/>
       <c r="P45" s="12"/>
@@ -7225,7 +7241,7 @@
       <c r="J46" s="140"/>
       <c r="K46" s="141"/>
       <c r="L46" s="146"/>
-      <c r="M46" s="173"/>
+      <c r="M46" s="176"/>
       <c r="N46" s="146"/>
       <c r="O46" s="147"/>
       <c r="P46" s="12"/>
@@ -7236,20 +7252,20 @@
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="199" t="s">
+      <c r="D47" s="202" t="s">
         <v>381</v>
       </c>
-      <c r="E47" s="200"/>
-      <c r="F47" s="200"/>
-      <c r="G47" s="200"/>
-      <c r="H47" s="200"/>
-      <c r="I47" s="200"/>
-      <c r="J47" s="200"/>
-      <c r="K47" s="200"/>
-      <c r="L47" s="201" t="s">
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
+      <c r="I47" s="203"/>
+      <c r="J47" s="203"/>
+      <c r="K47" s="203"/>
+      <c r="L47" s="204" t="s">
         <v>382</v>
       </c>
-      <c r="M47" s="202"/>
+      <c r="M47" s="205"/>
       <c r="N47" s="96"/>
       <c r="O47" s="97"/>
       <c r="P47" s="12"/>
@@ -7301,7 +7317,7 @@
       <c r="J49" s="136"/>
       <c r="K49" s="137"/>
       <c r="L49" s="142"/>
-      <c r="M49" s="171"/>
+      <c r="M49" s="174"/>
       <c r="N49" s="142"/>
       <c r="O49" s="143"/>
       <c r="P49" s="12"/>
@@ -7319,7 +7335,7 @@
       <c r="J50" s="138"/>
       <c r="K50" s="139"/>
       <c r="L50" s="144"/>
-      <c r="M50" s="172"/>
+      <c r="M50" s="175"/>
       <c r="N50" s="144"/>
       <c r="O50" s="145"/>
       <c r="P50" s="12"/>
@@ -7337,7 +7353,7 @@
       <c r="J51" s="138"/>
       <c r="K51" s="139"/>
       <c r="L51" s="144"/>
-      <c r="M51" s="172"/>
+      <c r="M51" s="175"/>
       <c r="N51" s="144"/>
       <c r="O51" s="145"/>
       <c r="P51" s="12"/>
@@ -7363,7 +7379,7 @@
       <c r="J52" s="138"/>
       <c r="K52" s="139"/>
       <c r="L52" s="144"/>
-      <c r="M52" s="172"/>
+      <c r="M52" s="175"/>
       <c r="N52" s="144"/>
       <c r="O52" s="145"/>
       <c r="P52" s="12"/>
@@ -7389,7 +7405,7 @@
       <c r="J53" s="138"/>
       <c r="K53" s="139"/>
       <c r="L53" s="144"/>
-      <c r="M53" s="172"/>
+      <c r="M53" s="175"/>
       <c r="N53" s="144"/>
       <c r="O53" s="145"/>
       <c r="P53" s="151"/>
@@ -7415,7 +7431,7 @@
       <c r="J54" s="140"/>
       <c r="K54" s="141"/>
       <c r="L54" s="146"/>
-      <c r="M54" s="173"/>
+      <c r="M54" s="176"/>
       <c r="N54" s="146"/>
       <c r="O54" s="147"/>
       <c r="P54" s="151"/>
@@ -7455,7 +7471,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
-      <c r="B56" s="203">
+      <c r="B56" s="206">
         <v>29</v>
       </c>
       <c r="C56" s="164"/>
@@ -7463,9 +7479,9 @@
         <v>30</v>
       </c>
       <c r="E56" s="164"/>
-      <c r="F56" s="204"/>
-      <c r="G56" s="204"/>
-      <c r="N56" s="204"/>
+      <c r="F56" s="207"/>
+      <c r="G56" s="207"/>
+      <c r="N56" s="207"/>
       <c r="O56" s="226"/>
       <c r="P56" s="151"/>
       <c r="Q56" s="152"/>
@@ -7487,7 +7503,7 @@
       <c r="J57" s="136"/>
       <c r="K57" s="137"/>
       <c r="L57" s="142"/>
-      <c r="M57" s="171"/>
+      <c r="M57" s="174"/>
       <c r="N57" s="142"/>
       <c r="O57" s="143"/>
       <c r="P57" s="153"/>
@@ -7510,7 +7526,7 @@
       <c r="J58" s="138"/>
       <c r="K58" s="139"/>
       <c r="L58" s="144"/>
-      <c r="M58" s="172"/>
+      <c r="M58" s="175"/>
       <c r="N58" s="144"/>
       <c r="O58" s="145"/>
       <c r="P58" s="12"/>
@@ -7528,7 +7544,7 @@
       <c r="J59" s="138"/>
       <c r="K59" s="139"/>
       <c r="L59" s="144"/>
-      <c r="M59" s="172"/>
+      <c r="M59" s="175"/>
       <c r="N59" s="144"/>
       <c r="O59" s="145"/>
       <c r="P59" s="12"/>
@@ -7546,7 +7562,7 @@
       <c r="J60" s="138"/>
       <c r="K60" s="139"/>
       <c r="L60" s="144"/>
-      <c r="M60" s="172"/>
+      <c r="M60" s="175"/>
       <c r="N60" s="144"/>
       <c r="O60" s="145"/>
       <c r="P60" s="12"/>
@@ -7564,7 +7580,7 @@
       <c r="J61" s="138"/>
       <c r="K61" s="139"/>
       <c r="L61" s="144"/>
-      <c r="M61" s="172"/>
+      <c r="M61" s="175"/>
       <c r="N61" s="144"/>
       <c r="O61" s="145"/>
       <c r="P61" s="12"/>
@@ -7582,7 +7598,7 @@
       <c r="J62" s="140"/>
       <c r="K62" s="141"/>
       <c r="L62" s="146"/>
-      <c r="M62" s="173"/>
+      <c r="M62" s="176"/>
       <c r="N62" s="146"/>
       <c r="O62" s="147"/>
       <c r="P62" s="12"/>
@@ -8061,10 +8077,10 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
-      <c r="B84" s="169">
+      <c r="B84" s="172">
         <v>13</v>
       </c>
-      <c r="C84" s="170"/>
+      <c r="C84" s="173"/>
       <c r="D84" s="164">
         <v>14</v>
       </c>
@@ -8365,12 +8381,12 @@
       <c r="E99" s="9"/>
       <c r="F99" s="8"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="205" t="s">
+      <c r="H99" s="169" t="s">
         <v>722</v>
       </c>
-      <c r="I99" s="206"/>
-      <c r="J99" s="206"/>
-      <c r="K99" s="207"/>
+      <c r="I99" s="170"/>
+      <c r="J99" s="170"/>
+      <c r="K99" s="171"/>
       <c r="L99" s="10"/>
       <c r="M99" s="11"/>
       <c r="N99" s="7"/>
@@ -12783,10 +12799,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13040,6 +13056,22 @@
       </c>
       <c r="B32" t="s">
         <v>730</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>731</v>
+      </c>
+      <c r="B33" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>733</v>
+      </c>
+      <c r="B34" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>
